--- a/2023秋/黄泽清-马原理分组情况.xlsx
+++ b/2023秋/黄泽清-马原理分组情况.xlsx
@@ -1,30 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juncker/助教/2023秋/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7254A32-0492-42D8-B744-EBA84656B510}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E10D6E6-BBBC-324E-ACCA-C19A9396EC95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9156" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1580" yWindow="500" windowWidth="28420" windowHeight="14920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="分组登记" sheetId="3" r:id="rId2"/>
+    <sheet name="SHEET2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$G$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SHEET2!$A$1:$G$106</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="229">
   <si>
     <t>2023-2024秋季学期《马克思主义基本原理》考勤表</t>
   </si>
@@ -737,6 +750,7 @@
     <font>
       <sz val="9"/>
       <name val="SimSun"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -846,6 +860,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -862,12 +882,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1186,94 +1200,94 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X112"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
+    <sheetView zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
       <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.109375" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
     <col min="5" max="6" width="4.6640625" customWidth="1"/>
-    <col min="7" max="24" width="4.5546875" customWidth="1"/>
-    <col min="25" max="25" width="9.77734375" customWidth="1"/>
+    <col min="7" max="24" width="4.5" customWidth="1"/>
+    <col min="25" max="25" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="32.700000000000003" customHeight="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:24" ht="32.75" customHeight="1">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-    </row>
-    <row r="2" spans="1:24" ht="16.350000000000001" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-    </row>
-    <row r="3" spans="1:24" ht="16.350000000000001" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+    </row>
+    <row r="2" spans="1:24" ht="16.25" customHeight="1">
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+    </row>
+    <row r="3" spans="1:24" ht="16.25" customHeight="1">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="10"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1329,13 +1343,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="16.350000000000001" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+    <row r="4" spans="1:24" ht="16.25" customHeight="1">
+      <c r="A4" s="12"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1391,7 +1405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="25.05" customHeight="1">
+    <row r="5" spans="1:24" ht="25" customHeight="1">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1404,10 +1418,10 @@
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="10"/>
+      <c r="E5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="12"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1427,7 +1441,7 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" ht="25.05" customHeight="1">
+    <row r="6" spans="1:24" ht="25" customHeight="1">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1440,10 +1454,10 @@
       <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="10"/>
+      <c r="E6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="12"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1463,7 +1477,7 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24" ht="25.05" customHeight="1">
+    <row r="7" spans="1:24" ht="25" customHeight="1">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1476,10 +1490,10 @@
       <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="10"/>
+      <c r="E7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="12"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1499,7 +1513,7 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" ht="25.05" customHeight="1">
+    <row r="8" spans="1:24" ht="25" customHeight="1">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1512,10 +1526,10 @@
       <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="10"/>
+      <c r="E8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="12"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1535,7 +1549,7 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" ht="25.05" customHeight="1">
+    <row r="9" spans="1:24" ht="25" customHeight="1">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -1548,10 +1562,10 @@
       <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="10"/>
+      <c r="E9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="12"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1571,7 +1585,7 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24" ht="25.05" customHeight="1">
+    <row r="10" spans="1:24" ht="25" customHeight="1">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -1584,10 +1598,10 @@
       <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="10"/>
+      <c r="E10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="12"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1607,7 +1621,7 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24" ht="25.05" customHeight="1">
+    <row r="11" spans="1:24" ht="25" customHeight="1">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -1620,10 +1634,10 @@
       <c r="D11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="10"/>
+      <c r="E11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="12"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1643,7 +1657,7 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24" ht="25.05" customHeight="1">
+    <row r="12" spans="1:24" ht="25" customHeight="1">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -1656,10 +1670,10 @@
       <c r="D12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="10"/>
+      <c r="E12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="12"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1679,7 +1693,7 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24" ht="25.05" customHeight="1">
+    <row r="13" spans="1:24" ht="25" customHeight="1">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -1692,10 +1706,10 @@
       <c r="D13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="10"/>
+      <c r="E13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="12"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1715,7 +1729,7 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24" ht="25.05" customHeight="1">
+    <row r="14" spans="1:24" ht="25" customHeight="1">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -1728,10 +1742,10 @@
       <c r="D14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="10"/>
+      <c r="E14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="12"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1751,7 +1765,7 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:24" ht="25.05" customHeight="1">
+    <row r="15" spans="1:24" ht="25" customHeight="1">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -1764,10 +1778,10 @@
       <c r="D15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="10"/>
+      <c r="E15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="12"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1787,7 +1801,7 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:24" ht="25.05" customHeight="1">
+    <row r="16" spans="1:24" ht="25" customHeight="1">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -1800,10 +1814,10 @@
       <c r="D16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="10"/>
+      <c r="E16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="12"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1823,7 +1837,7 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:24" ht="25.05" customHeight="1">
+    <row r="17" spans="1:24" ht="25" customHeight="1">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -1836,10 +1850,10 @@
       <c r="D17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="10"/>
+      <c r="E17" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="12"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1859,7 +1873,7 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:24" ht="25.05" customHeight="1">
+    <row r="18" spans="1:24" ht="25" customHeight="1">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -1872,10 +1886,10 @@
       <c r="D18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="10"/>
+      <c r="E18" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="12"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1895,7 +1909,7 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="1:24" ht="25.05" customHeight="1">
+    <row r="19" spans="1:24" ht="25" customHeight="1">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -1908,10 +1922,10 @@
       <c r="D19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="10"/>
+      <c r="E19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="12"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1931,7 +1945,7 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="1:24" ht="25.05" customHeight="1">
+    <row r="20" spans="1:24" ht="25" customHeight="1">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -1944,10 +1958,10 @@
       <c r="D20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="10"/>
+      <c r="E20" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="12"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1967,7 +1981,7 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="1:24" ht="25.05" customHeight="1">
+    <row r="21" spans="1:24" ht="25" customHeight="1">
       <c r="A21" s="2">
         <v>17</v>
       </c>
@@ -1980,10 +1994,10 @@
       <c r="D21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="10"/>
+      <c r="E21" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="12"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -2003,7 +2017,7 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="1:24" ht="25.05" customHeight="1">
+    <row r="22" spans="1:24" ht="25" customHeight="1">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -2016,10 +2030,10 @@
       <c r="D22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="10"/>
+      <c r="E22" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="12"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -2039,7 +2053,7 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:24" ht="25.05" customHeight="1">
+    <row r="23" spans="1:24" ht="25" customHeight="1">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -2052,10 +2066,10 @@
       <c r="D23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="10"/>
+      <c r="E23" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="12"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -2075,7 +2089,7 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="1:24" ht="25.05" customHeight="1">
+    <row r="24" spans="1:24" ht="25" customHeight="1">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -2088,10 +2102,10 @@
       <c r="D24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="10"/>
+      <c r="E24" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="12"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -2111,7 +2125,7 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:24" ht="25.05" customHeight="1">
+    <row r="25" spans="1:24" ht="25" customHeight="1">
       <c r="A25" s="2">
         <v>21</v>
       </c>
@@ -2124,10 +2138,10 @@
       <c r="D25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="10"/>
+      <c r="E25" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="12"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -2147,7 +2161,7 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24" ht="25.05" customHeight="1">
+    <row r="26" spans="1:24" ht="25" customHeight="1">
       <c r="A26" s="2">
         <v>22</v>
       </c>
@@ -2160,10 +2174,10 @@
       <c r="D26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="10"/>
+      <c r="E26" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="12"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -2183,7 +2197,7 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:24" ht="25.05" customHeight="1">
+    <row r="27" spans="1:24" ht="25" customHeight="1">
       <c r="A27" s="2">
         <v>23</v>
       </c>
@@ -2196,10 +2210,10 @@
       <c r="D27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="10"/>
+      <c r="E27" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="12"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -2219,7 +2233,7 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
     </row>
-    <row r="28" spans="1:24" ht="25.05" customHeight="1">
+    <row r="28" spans="1:24" ht="25" customHeight="1">
       <c r="A28" s="2">
         <v>24</v>
       </c>
@@ -2232,10 +2246,10 @@
       <c r="D28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="10"/>
+      <c r="E28" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="12"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -2255,7 +2269,7 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
     </row>
-    <row r="29" spans="1:24" ht="25.05" customHeight="1">
+    <row r="29" spans="1:24" ht="25" customHeight="1">
       <c r="A29" s="2">
         <v>25</v>
       </c>
@@ -2268,10 +2282,10 @@
       <c r="D29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="10"/>
+      <c r="E29" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="12"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -2291,7 +2305,7 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
     </row>
-    <row r="30" spans="1:24" ht="25.05" customHeight="1">
+    <row r="30" spans="1:24" ht="25" customHeight="1">
       <c r="A30" s="2">
         <v>26</v>
       </c>
@@ -2304,10 +2318,10 @@
       <c r="D30" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="10"/>
+      <c r="E30" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="12"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -2327,7 +2341,7 @@
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
     </row>
-    <row r="31" spans="1:24" ht="25.05" customHeight="1">
+    <row r="31" spans="1:24" ht="25" customHeight="1">
       <c r="A31" s="2">
         <v>27</v>
       </c>
@@ -2340,10 +2354,10 @@
       <c r="D31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="10"/>
+      <c r="E31" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="12"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -2363,7 +2377,7 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
     </row>
-    <row r="32" spans="1:24" ht="25.05" customHeight="1">
+    <row r="32" spans="1:24" ht="25" customHeight="1">
       <c r="A32" s="2">
         <v>28</v>
       </c>
@@ -2376,10 +2390,10 @@
       <c r="D32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="10"/>
+      <c r="E32" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="12"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -2399,7 +2413,7 @@
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
     </row>
-    <row r="33" spans="1:24" ht="25.05" customHeight="1">
+    <row r="33" spans="1:24" ht="25" customHeight="1">
       <c r="A33" s="2">
         <v>29</v>
       </c>
@@ -2412,10 +2426,10 @@
       <c r="D33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="10"/>
+      <c r="E33" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="12"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2435,7 +2449,7 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
     </row>
-    <row r="34" spans="1:24" ht="25.05" customHeight="1">
+    <row r="34" spans="1:24" ht="25" customHeight="1">
       <c r="A34" s="2">
         <v>30</v>
       </c>
@@ -2448,10 +2462,10 @@
       <c r="D34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="10"/>
+      <c r="E34" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="12"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2471,7 +2485,7 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
     </row>
-    <row r="35" spans="1:24" ht="25.05" customHeight="1">
+    <row r="35" spans="1:24" ht="25" customHeight="1">
       <c r="A35" s="2">
         <v>31</v>
       </c>
@@ -2484,10 +2498,10 @@
       <c r="D35" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="10"/>
+      <c r="E35" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="12"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2507,7 +2521,7 @@
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
     </row>
-    <row r="36" spans="1:24" ht="25.05" customHeight="1">
+    <row r="36" spans="1:24" ht="25" customHeight="1">
       <c r="A36" s="2">
         <v>32</v>
       </c>
@@ -2520,10 +2534,10 @@
       <c r="D36" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="10"/>
+      <c r="E36" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="12"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -2543,7 +2557,7 @@
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
     </row>
-    <row r="37" spans="1:24" ht="25.05" customHeight="1">
+    <row r="37" spans="1:24" ht="25" customHeight="1">
       <c r="A37" s="2">
         <v>33</v>
       </c>
@@ -2556,10 +2570,10 @@
       <c r="D37" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="10"/>
+      <c r="E37" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="12"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -2579,7 +2593,7 @@
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
     </row>
-    <row r="38" spans="1:24" ht="25.05" customHeight="1">
+    <row r="38" spans="1:24" ht="25" customHeight="1">
       <c r="A38" s="2">
         <v>34</v>
       </c>
@@ -2592,10 +2606,10 @@
       <c r="D38" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="10"/>
+      <c r="E38" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="12"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -2615,7 +2629,7 @@
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
     </row>
-    <row r="39" spans="1:24" ht="25.05" customHeight="1">
+    <row r="39" spans="1:24" ht="25" customHeight="1">
       <c r="A39" s="2">
         <v>35</v>
       </c>
@@ -2628,10 +2642,10 @@
       <c r="D39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="10"/>
+      <c r="E39" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="12"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -2651,7 +2665,7 @@
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
     </row>
-    <row r="40" spans="1:24" ht="25.05" customHeight="1">
+    <row r="40" spans="1:24" ht="25" customHeight="1">
       <c r="A40" s="2">
         <v>36</v>
       </c>
@@ -2664,10 +2678,10 @@
       <c r="D40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="10"/>
+      <c r="E40" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="12"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -2687,7 +2701,7 @@
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
     </row>
-    <row r="41" spans="1:24" ht="25.05" customHeight="1">
+    <row r="41" spans="1:24" ht="25" customHeight="1">
       <c r="A41" s="2">
         <v>37</v>
       </c>
@@ -2700,10 +2714,10 @@
       <c r="D41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E41" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="10"/>
+      <c r="E41" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="12"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -2723,7 +2737,7 @@
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
     </row>
-    <row r="42" spans="1:24" ht="25.05" customHeight="1">
+    <row r="42" spans="1:24" ht="25" customHeight="1">
       <c r="A42" s="2">
         <v>38</v>
       </c>
@@ -2736,10 +2750,10 @@
       <c r="D42" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="10"/>
+      <c r="E42" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="12"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -2759,7 +2773,7 @@
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
     </row>
-    <row r="43" spans="1:24" ht="25.05" customHeight="1">
+    <row r="43" spans="1:24" ht="25" customHeight="1">
       <c r="A43" s="2">
         <v>39</v>
       </c>
@@ -2772,10 +2786,10 @@
       <c r="D43" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="10"/>
+      <c r="E43" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="12"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -2795,7 +2809,7 @@
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
     </row>
-    <row r="44" spans="1:24" ht="25.05" customHeight="1">
+    <row r="44" spans="1:24" ht="25" customHeight="1">
       <c r="A44" s="2">
         <v>40</v>
       </c>
@@ -2808,10 +2822,10 @@
       <c r="D44" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="10"/>
+      <c r="E44" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="12"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -2831,7 +2845,7 @@
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
     </row>
-    <row r="45" spans="1:24" ht="25.05" customHeight="1">
+    <row r="45" spans="1:24" ht="25" customHeight="1">
       <c r="A45" s="2">
         <v>41</v>
       </c>
@@ -2844,10 +2858,10 @@
       <c r="D45" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="10"/>
+      <c r="E45" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="12"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -2867,7 +2881,7 @@
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
     </row>
-    <row r="46" spans="1:24" ht="25.05" customHeight="1">
+    <row r="46" spans="1:24" ht="25" customHeight="1">
       <c r="A46" s="2">
         <v>42</v>
       </c>
@@ -2880,10 +2894,10 @@
       <c r="D46" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="10"/>
+      <c r="E46" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="12"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -2903,7 +2917,7 @@
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
     </row>
-    <row r="47" spans="1:24" ht="25.05" customHeight="1">
+    <row r="47" spans="1:24" ht="25" customHeight="1">
       <c r="A47" s="2">
         <v>43</v>
       </c>
@@ -2916,10 +2930,10 @@
       <c r="D47" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="10"/>
+      <c r="E47" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="12"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -2939,7 +2953,7 @@
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
     </row>
-    <row r="48" spans="1:24" ht="25.05" customHeight="1">
+    <row r="48" spans="1:24" ht="25" customHeight="1">
       <c r="A48" s="2">
         <v>44</v>
       </c>
@@ -2952,10 +2966,10 @@
       <c r="D48" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E48" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="10"/>
+      <c r="E48" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="12"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -2975,7 +2989,7 @@
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
     </row>
-    <row r="49" spans="1:24" ht="25.05" customHeight="1">
+    <row r="49" spans="1:24" ht="25" customHeight="1">
       <c r="A49" s="2">
         <v>45</v>
       </c>
@@ -2988,10 +3002,10 @@
       <c r="D49" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="10"/>
+      <c r="E49" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="12"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -3011,7 +3025,7 @@
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
     </row>
-    <row r="50" spans="1:24" ht="25.05" customHeight="1">
+    <row r="50" spans="1:24" ht="25" customHeight="1">
       <c r="A50" s="2">
         <v>46</v>
       </c>
@@ -3024,10 +3038,10 @@
       <c r="D50" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E50" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="10"/>
+      <c r="E50" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="12"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -3047,7 +3061,7 @@
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
     </row>
-    <row r="51" spans="1:24" ht="25.05" customHeight="1">
+    <row r="51" spans="1:24" ht="25" customHeight="1">
       <c r="A51" s="2">
         <v>47</v>
       </c>
@@ -3060,10 +3074,10 @@
       <c r="D51" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E51" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="10"/>
+      <c r="E51" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="12"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -3083,7 +3097,7 @@
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
     </row>
-    <row r="52" spans="1:24" ht="25.05" customHeight="1">
+    <row r="52" spans="1:24" ht="25" customHeight="1">
       <c r="A52" s="2">
         <v>48</v>
       </c>
@@ -3096,10 +3110,10 @@
       <c r="D52" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E52" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="10"/>
+      <c r="E52" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="12"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -3119,7 +3133,7 @@
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
     </row>
-    <row r="53" spans="1:24" ht="25.05" customHeight="1">
+    <row r="53" spans="1:24" ht="25" customHeight="1">
       <c r="A53" s="2">
         <v>49</v>
       </c>
@@ -3132,10 +3146,10 @@
       <c r="D53" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" s="10"/>
+      <c r="E53" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="12"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -3155,7 +3169,7 @@
       <c r="W53" s="1"/>
       <c r="X53" s="1"/>
     </row>
-    <row r="54" spans="1:24" ht="25.05" customHeight="1">
+    <row r="54" spans="1:24" ht="25" customHeight="1">
       <c r="A54" s="2">
         <v>50</v>
       </c>
@@ -3168,10 +3182,10 @@
       <c r="D54" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" s="10"/>
+      <c r="E54" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="12"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -3191,7 +3205,7 @@
       <c r="W54" s="1"/>
       <c r="X54" s="1"/>
     </row>
-    <row r="55" spans="1:24" ht="25.05" customHeight="1">
+    <row r="55" spans="1:24" ht="25" customHeight="1">
       <c r="A55" s="2">
         <v>51</v>
       </c>
@@ -3204,10 +3218,10 @@
       <c r="D55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E55" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="10"/>
+      <c r="E55" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="12"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -3227,7 +3241,7 @@
       <c r="W55" s="1"/>
       <c r="X55" s="1"/>
     </row>
-    <row r="56" spans="1:24" ht="25.05" customHeight="1">
+    <row r="56" spans="1:24" ht="25" customHeight="1">
       <c r="A56" s="2">
         <v>52</v>
       </c>
@@ -3240,10 +3254,10 @@
       <c r="D56" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E56" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="10"/>
+      <c r="E56" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="12"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -3263,7 +3277,7 @@
       <c r="W56" s="1"/>
       <c r="X56" s="1"/>
     </row>
-    <row r="57" spans="1:24" ht="25.05" customHeight="1">
+    <row r="57" spans="1:24" ht="25" customHeight="1">
       <c r="A57" s="2">
         <v>53</v>
       </c>
@@ -3276,10 +3290,10 @@
       <c r="D57" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E57" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="10"/>
+      <c r="E57" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="12"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -3299,7 +3313,7 @@
       <c r="W57" s="1"/>
       <c r="X57" s="1"/>
     </row>
-    <row r="58" spans="1:24" ht="25.05" customHeight="1">
+    <row r="58" spans="1:24" ht="25" customHeight="1">
       <c r="A58" s="2">
         <v>54</v>
       </c>
@@ -3312,10 +3326,10 @@
       <c r="D58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="10"/>
+      <c r="E58" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="12"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -3335,7 +3349,7 @@
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
     </row>
-    <row r="59" spans="1:24" ht="25.05" customHeight="1">
+    <row r="59" spans="1:24" ht="25" customHeight="1">
       <c r="A59" s="2">
         <v>55</v>
       </c>
@@ -3348,10 +3362,10 @@
       <c r="D59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="10"/>
+      <c r="E59" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="12"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -3371,7 +3385,7 @@
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
     </row>
-    <row r="60" spans="1:24" ht="25.05" customHeight="1">
+    <row r="60" spans="1:24" ht="25" customHeight="1">
       <c r="A60" s="2">
         <v>56</v>
       </c>
@@ -3384,10 +3398,10 @@
       <c r="D60" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E60" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="10"/>
+      <c r="E60" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="12"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -3407,7 +3421,7 @@
       <c r="W60" s="1"/>
       <c r="X60" s="1"/>
     </row>
-    <row r="61" spans="1:24" ht="25.05" customHeight="1">
+    <row r="61" spans="1:24" ht="25" customHeight="1">
       <c r="A61" s="2">
         <v>57</v>
       </c>
@@ -3420,10 +3434,10 @@
       <c r="D61" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E61" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="10"/>
+      <c r="E61" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="12"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -3443,7 +3457,7 @@
       <c r="W61" s="1"/>
       <c r="X61" s="1"/>
     </row>
-    <row r="62" spans="1:24" ht="25.05" customHeight="1">
+    <row r="62" spans="1:24" ht="25" customHeight="1">
       <c r="A62" s="2">
         <v>58</v>
       </c>
@@ -3456,10 +3470,10 @@
       <c r="D62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="10"/>
+      <c r="E62" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="12"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -3479,7 +3493,7 @@
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
     </row>
-    <row r="63" spans="1:24" ht="25.05" customHeight="1">
+    <row r="63" spans="1:24" ht="25" customHeight="1">
       <c r="A63" s="2">
         <v>59</v>
       </c>
@@ -3492,10 +3506,10 @@
       <c r="D63" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E63" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="10"/>
+      <c r="E63" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="12"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -3515,7 +3529,7 @@
       <c r="W63" s="1"/>
       <c r="X63" s="1"/>
     </row>
-    <row r="64" spans="1:24" ht="25.05" customHeight="1">
+    <row r="64" spans="1:24" ht="25" customHeight="1">
       <c r="A64" s="2">
         <v>60</v>
       </c>
@@ -3528,10 +3542,10 @@
       <c r="D64" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="10"/>
+      <c r="E64" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="12"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -3551,7 +3565,7 @@
       <c r="W64" s="1"/>
       <c r="X64" s="1"/>
     </row>
-    <row r="65" spans="1:24" ht="25.05" customHeight="1">
+    <row r="65" spans="1:24" ht="25" customHeight="1">
       <c r="A65" s="2">
         <v>61</v>
       </c>
@@ -3564,10 +3578,10 @@
       <c r="D65" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E65" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" s="10"/>
+      <c r="E65" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="12"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -3587,7 +3601,7 @@
       <c r="W65" s="1"/>
       <c r="X65" s="1"/>
     </row>
-    <row r="66" spans="1:24" ht="25.05" customHeight="1">
+    <row r="66" spans="1:24" ht="25" customHeight="1">
       <c r="A66" s="2">
         <v>62</v>
       </c>
@@ -3600,10 +3614,10 @@
       <c r="D66" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E66" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" s="10"/>
+      <c r="E66" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="12"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -3623,7 +3637,7 @@
       <c r="W66" s="1"/>
       <c r="X66" s="1"/>
     </row>
-    <row r="67" spans="1:24" ht="25.05" customHeight="1">
+    <row r="67" spans="1:24" ht="25" customHeight="1">
       <c r="A67" s="2">
         <v>63</v>
       </c>
@@ -3636,10 +3650,10 @@
       <c r="D67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E67" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67" s="10"/>
+      <c r="E67" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="12"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -3659,7 +3673,7 @@
       <c r="W67" s="1"/>
       <c r="X67" s="1"/>
     </row>
-    <row r="68" spans="1:24" ht="25.05" customHeight="1">
+    <row r="68" spans="1:24" ht="25" customHeight="1">
       <c r="A68" s="2">
         <v>64</v>
       </c>
@@ -3672,10 +3686,10 @@
       <c r="D68" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E68" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" s="10"/>
+      <c r="E68" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="12"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -3695,7 +3709,7 @@
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
     </row>
-    <row r="69" spans="1:24" ht="25.05" customHeight="1">
+    <row r="69" spans="1:24" ht="25" customHeight="1">
       <c r="A69" s="2">
         <v>65</v>
       </c>
@@ -3708,10 +3722,10 @@
       <c r="D69" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E69" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" s="10"/>
+      <c r="E69" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="12"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -3731,7 +3745,7 @@
       <c r="W69" s="1"/>
       <c r="X69" s="1"/>
     </row>
-    <row r="70" spans="1:24" ht="25.05" customHeight="1">
+    <row r="70" spans="1:24" ht="25" customHeight="1">
       <c r="A70" s="2">
         <v>66</v>
       </c>
@@ -3744,10 +3758,10 @@
       <c r="D70" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E70" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" s="10"/>
+      <c r="E70" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="12"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -3767,7 +3781,7 @@
       <c r="W70" s="1"/>
       <c r="X70" s="1"/>
     </row>
-    <row r="71" spans="1:24" ht="25.05" customHeight="1">
+    <row r="71" spans="1:24" ht="25" customHeight="1">
       <c r="A71" s="2">
         <v>67</v>
       </c>
@@ -3780,10 +3794,10 @@
       <c r="D71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E71" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" s="10"/>
+      <c r="E71" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="12"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -3803,7 +3817,7 @@
       <c r="W71" s="1"/>
       <c r="X71" s="1"/>
     </row>
-    <row r="72" spans="1:24" ht="25.05" customHeight="1">
+    <row r="72" spans="1:24" ht="25" customHeight="1">
       <c r="A72" s="2">
         <v>68</v>
       </c>
@@ -3816,10 +3830,10 @@
       <c r="D72" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E72" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="10"/>
+      <c r="E72" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="12"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -3839,7 +3853,7 @@
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
     </row>
-    <row r="73" spans="1:24" ht="25.05" customHeight="1">
+    <row r="73" spans="1:24" ht="25" customHeight="1">
       <c r="A73" s="2">
         <v>69</v>
       </c>
@@ -3852,10 +3866,10 @@
       <c r="D73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E73" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="10"/>
+      <c r="E73" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="12"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -3875,7 +3889,7 @@
       <c r="W73" s="1"/>
       <c r="X73" s="1"/>
     </row>
-    <row r="74" spans="1:24" ht="25.05" customHeight="1">
+    <row r="74" spans="1:24" ht="25" customHeight="1">
       <c r="A74" s="2">
         <v>70</v>
       </c>
@@ -3888,10 +3902,10 @@
       <c r="D74" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E74" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" s="10"/>
+      <c r="E74" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="12"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -3911,7 +3925,7 @@
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
     </row>
-    <row r="75" spans="1:24" ht="25.05" customHeight="1">
+    <row r="75" spans="1:24" ht="25" customHeight="1">
       <c r="A75" s="2">
         <v>71</v>
       </c>
@@ -3924,10 +3938,10 @@
       <c r="D75" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E75" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F75" s="10"/>
+      <c r="E75" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="12"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -3947,7 +3961,7 @@
       <c r="W75" s="1"/>
       <c r="X75" s="1"/>
     </row>
-    <row r="76" spans="1:24" ht="25.05" customHeight="1">
+    <row r="76" spans="1:24" ht="25" customHeight="1">
       <c r="A76" s="2">
         <v>72</v>
       </c>
@@ -3960,10 +3974,10 @@
       <c r="D76" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E76" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" s="10"/>
+      <c r="E76" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="12"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -3983,7 +3997,7 @@
       <c r="W76" s="1"/>
       <c r="X76" s="1"/>
     </row>
-    <row r="77" spans="1:24" ht="25.05" customHeight="1">
+    <row r="77" spans="1:24" ht="25" customHeight="1">
       <c r="A77" s="2">
         <v>73</v>
       </c>
@@ -3996,10 +4010,10 @@
       <c r="D77" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E77" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" s="10"/>
+      <c r="E77" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="12"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -4019,7 +4033,7 @@
       <c r="W77" s="1"/>
       <c r="X77" s="1"/>
     </row>
-    <row r="78" spans="1:24" ht="25.05" customHeight="1">
+    <row r="78" spans="1:24" ht="25" customHeight="1">
       <c r="A78" s="2">
         <v>74</v>
       </c>
@@ -4032,10 +4046,10 @@
       <c r="D78" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E78" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" s="10"/>
+      <c r="E78" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="12"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -4055,7 +4069,7 @@
       <c r="W78" s="1"/>
       <c r="X78" s="1"/>
     </row>
-    <row r="79" spans="1:24" ht="25.05" customHeight="1">
+    <row r="79" spans="1:24" ht="25" customHeight="1">
       <c r="A79" s="2">
         <v>75</v>
       </c>
@@ -4068,10 +4082,10 @@
       <c r="D79" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E79" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79" s="10"/>
+      <c r="E79" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="12"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -4091,7 +4105,7 @@
       <c r="W79" s="1"/>
       <c r="X79" s="1"/>
     </row>
-    <row r="80" spans="1:24" ht="25.05" customHeight="1">
+    <row r="80" spans="1:24" ht="25" customHeight="1">
       <c r="A80" s="2">
         <v>76</v>
       </c>
@@ -4104,10 +4118,10 @@
       <c r="D80" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E80" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F80" s="10"/>
+      <c r="E80" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" s="12"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -4127,7 +4141,7 @@
       <c r="W80" s="1"/>
       <c r="X80" s="1"/>
     </row>
-    <row r="81" spans="1:24" ht="25.05" customHeight="1">
+    <row r="81" spans="1:24" ht="25" customHeight="1">
       <c r="A81" s="2">
         <v>77</v>
       </c>
@@ -4140,10 +4154,10 @@
       <c r="D81" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E81" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81" s="10"/>
+      <c r="E81" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" s="12"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -4163,7 +4177,7 @@
       <c r="W81" s="1"/>
       <c r="X81" s="1"/>
     </row>
-    <row r="82" spans="1:24" ht="25.05" customHeight="1">
+    <row r="82" spans="1:24" ht="25" customHeight="1">
       <c r="A82" s="2">
         <v>78</v>
       </c>
@@ -4176,10 +4190,10 @@
       <c r="D82" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E82" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F82" s="10"/>
+      <c r="E82" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" s="12"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -4199,7 +4213,7 @@
       <c r="W82" s="1"/>
       <c r="X82" s="1"/>
     </row>
-    <row r="83" spans="1:24" ht="25.05" customHeight="1">
+    <row r="83" spans="1:24" ht="25" customHeight="1">
       <c r="A83" s="2">
         <v>79</v>
       </c>
@@ -4212,10 +4226,10 @@
       <c r="D83" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E83" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F83" s="10"/>
+      <c r="E83" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" s="12"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -4235,7 +4249,7 @@
       <c r="W83" s="1"/>
       <c r="X83" s="1"/>
     </row>
-    <row r="84" spans="1:24" ht="25.05" customHeight="1">
+    <row r="84" spans="1:24" ht="25" customHeight="1">
       <c r="A84" s="2">
         <v>80</v>
       </c>
@@ -4248,10 +4262,10 @@
       <c r="D84" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E84" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F84" s="10"/>
+      <c r="E84" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="12"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -4271,7 +4285,7 @@
       <c r="W84" s="1"/>
       <c r="X84" s="1"/>
     </row>
-    <row r="85" spans="1:24" ht="25.05" customHeight="1">
+    <row r="85" spans="1:24" ht="25" customHeight="1">
       <c r="A85" s="2">
         <v>81</v>
       </c>
@@ -4284,10 +4298,10 @@
       <c r="D85" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E85" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F85" s="10"/>
+      <c r="E85" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" s="12"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -4307,7 +4321,7 @@
       <c r="W85" s="1"/>
       <c r="X85" s="1"/>
     </row>
-    <row r="86" spans="1:24" ht="25.05" customHeight="1">
+    <row r="86" spans="1:24" ht="25" customHeight="1">
       <c r="A86" s="2">
         <v>82</v>
       </c>
@@ -4320,10 +4334,10 @@
       <c r="D86" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E86" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F86" s="10"/>
+      <c r="E86" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" s="12"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -4343,7 +4357,7 @@
       <c r="W86" s="1"/>
       <c r="X86" s="1"/>
     </row>
-    <row r="87" spans="1:24" ht="37.950000000000003" customHeight="1">
+    <row r="87" spans="1:24" ht="38" customHeight="1">
       <c r="A87" s="2">
         <v>83</v>
       </c>
@@ -4356,10 +4370,10 @@
       <c r="D87" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E87" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F87" s="10"/>
+      <c r="E87" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87" s="12"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -4379,7 +4393,7 @@
       <c r="W87" s="1"/>
       <c r="X87" s="1"/>
     </row>
-    <row r="88" spans="1:24" ht="25.05" customHeight="1">
+    <row r="88" spans="1:24" ht="25" customHeight="1">
       <c r="A88" s="2">
         <v>84</v>
       </c>
@@ -4392,10 +4406,10 @@
       <c r="D88" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E88" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F88" s="10"/>
+      <c r="E88" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88" s="12"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -4415,7 +4429,7 @@
       <c r="W88" s="1"/>
       <c r="X88" s="1"/>
     </row>
-    <row r="89" spans="1:24" ht="37.950000000000003" customHeight="1">
+    <row r="89" spans="1:24" ht="38" customHeight="1">
       <c r="A89" s="2">
         <v>85</v>
       </c>
@@ -4428,10 +4442,10 @@
       <c r="D89" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E89" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F89" s="10"/>
+      <c r="E89" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" s="12"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -4451,7 +4465,7 @@
       <c r="W89" s="1"/>
       <c r="X89" s="1"/>
     </row>
-    <row r="90" spans="1:24" ht="25.05" customHeight="1">
+    <row r="90" spans="1:24" ht="25" customHeight="1">
       <c r="A90" s="2">
         <v>86</v>
       </c>
@@ -4464,10 +4478,10 @@
       <c r="D90" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E90" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F90" s="10"/>
+      <c r="E90" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" s="12"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -4487,7 +4501,7 @@
       <c r="W90" s="1"/>
       <c r="X90" s="1"/>
     </row>
-    <row r="91" spans="1:24" ht="25.05" customHeight="1">
+    <row r="91" spans="1:24" ht="25" customHeight="1">
       <c r="A91" s="2">
         <v>87</v>
       </c>
@@ -4500,10 +4514,10 @@
       <c r="D91" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E91" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F91" s="10"/>
+      <c r="E91" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" s="12"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -4523,7 +4537,7 @@
       <c r="W91" s="1"/>
       <c r="X91" s="1"/>
     </row>
-    <row r="92" spans="1:24" ht="25.05" customHeight="1">
+    <row r="92" spans="1:24" ht="25" customHeight="1">
       <c r="A92" s="2">
         <v>88</v>
       </c>
@@ -4536,10 +4550,10 @@
       <c r="D92" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E92" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F92" s="10"/>
+      <c r="E92" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" s="12"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -4559,7 +4573,7 @@
       <c r="W92" s="1"/>
       <c r="X92" s="1"/>
     </row>
-    <row r="93" spans="1:24" ht="25.05" customHeight="1">
+    <row r="93" spans="1:24" ht="25" customHeight="1">
       <c r="A93" s="2">
         <v>89</v>
       </c>
@@ -4572,10 +4586,10 @@
       <c r="D93" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E93" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F93" s="10"/>
+      <c r="E93" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" s="12"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -4595,7 +4609,7 @@
       <c r="W93" s="1"/>
       <c r="X93" s="1"/>
     </row>
-    <row r="94" spans="1:24" ht="25.05" customHeight="1">
+    <row r="94" spans="1:24" ht="25" customHeight="1">
       <c r="A94" s="2">
         <v>90</v>
       </c>
@@ -4608,10 +4622,10 @@
       <c r="D94" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E94" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F94" s="10"/>
+      <c r="E94" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" s="12"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -4631,7 +4645,7 @@
       <c r="W94" s="1"/>
       <c r="X94" s="1"/>
     </row>
-    <row r="95" spans="1:24" ht="25.05" customHeight="1">
+    <row r="95" spans="1:24" ht="25" customHeight="1">
       <c r="A95" s="2">
         <v>91</v>
       </c>
@@ -4644,10 +4658,10 @@
       <c r="D95" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E95" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F95" s="10"/>
+      <c r="E95" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95" s="12"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -4667,7 +4681,7 @@
       <c r="W95" s="1"/>
       <c r="X95" s="1"/>
     </row>
-    <row r="96" spans="1:24" ht="25.05" customHeight="1">
+    <row r="96" spans="1:24" ht="25" customHeight="1">
       <c r="A96" s="2">
         <v>92</v>
       </c>
@@ -4680,10 +4694,10 @@
       <c r="D96" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E96" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F96" s="10"/>
+      <c r="E96" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F96" s="12"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -4703,7 +4717,7 @@
       <c r="W96" s="1"/>
       <c r="X96" s="1"/>
     </row>
-    <row r="97" spans="1:24" ht="25.05" customHeight="1">
+    <row r="97" spans="1:24" ht="25" customHeight="1">
       <c r="A97" s="2">
         <v>93</v>
       </c>
@@ -4716,10 +4730,10 @@
       <c r="D97" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E97" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F97" s="10"/>
+      <c r="E97" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" s="12"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -4739,7 +4753,7 @@
       <c r="W97" s="1"/>
       <c r="X97" s="1"/>
     </row>
-    <row r="98" spans="1:24" ht="25.05" customHeight="1">
+    <row r="98" spans="1:24" ht="25" customHeight="1">
       <c r="A98" s="2">
         <v>94</v>
       </c>
@@ -4752,10 +4766,10 @@
       <c r="D98" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E98" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F98" s="10"/>
+      <c r="E98" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" s="12"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -4775,7 +4789,7 @@
       <c r="W98" s="1"/>
       <c r="X98" s="1"/>
     </row>
-    <row r="99" spans="1:24" ht="25.05" customHeight="1">
+    <row r="99" spans="1:24" ht="25" customHeight="1">
       <c r="A99" s="2">
         <v>95</v>
       </c>
@@ -4788,10 +4802,10 @@
       <c r="D99" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E99" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F99" s="10"/>
+      <c r="E99" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99" s="12"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -4811,7 +4825,7 @@
       <c r="W99" s="1"/>
       <c r="X99" s="1"/>
     </row>
-    <row r="100" spans="1:24" ht="37.950000000000003" customHeight="1">
+    <row r="100" spans="1:24" ht="38" customHeight="1">
       <c r="A100" s="2">
         <v>96</v>
       </c>
@@ -4824,10 +4838,10 @@
       <c r="D100" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E100" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F100" s="10"/>
+      <c r="E100" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" s="12"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
@@ -4847,7 +4861,7 @@
       <c r="W100" s="1"/>
       <c r="X100" s="1"/>
     </row>
-    <row r="101" spans="1:24" ht="25.05" customHeight="1">
+    <row r="101" spans="1:24" ht="25" customHeight="1">
       <c r="A101" s="2">
         <v>97</v>
       </c>
@@ -4860,10 +4874,10 @@
       <c r="D101" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E101" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F101" s="10"/>
+      <c r="E101" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" s="12"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
@@ -4883,7 +4897,7 @@
       <c r="W101" s="1"/>
       <c r="X101" s="1"/>
     </row>
-    <row r="102" spans="1:24" ht="25.05" customHeight="1">
+    <row r="102" spans="1:24" ht="25" customHeight="1">
       <c r="A102" s="2">
         <v>98</v>
       </c>
@@ -4896,10 +4910,10 @@
       <c r="D102" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E102" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F102" s="10"/>
+      <c r="E102" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" s="12"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
@@ -4919,7 +4933,7 @@
       <c r="W102" s="1"/>
       <c r="X102" s="1"/>
     </row>
-    <row r="103" spans="1:24" ht="25.05" customHeight="1">
+    <row r="103" spans="1:24" ht="25" customHeight="1">
       <c r="A103" s="2">
         <v>99</v>
       </c>
@@ -4932,10 +4946,10 @@
       <c r="D103" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E103" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F103" s="10"/>
+      <c r="E103" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F103" s="12"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
@@ -4955,7 +4969,7 @@
       <c r="W103" s="1"/>
       <c r="X103" s="1"/>
     </row>
-    <row r="104" spans="1:24" ht="25.05" customHeight="1">
+    <row r="104" spans="1:24" ht="25" customHeight="1">
       <c r="A104" s="2">
         <v>100</v>
       </c>
@@ -4968,10 +4982,10 @@
       <c r="D104" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E104" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F104" s="10"/>
+      <c r="E104" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104" s="12"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
@@ -4991,7 +5005,7 @@
       <c r="W104" s="1"/>
       <c r="X104" s="1"/>
     </row>
-    <row r="105" spans="1:24" ht="25.05" customHeight="1">
+    <row r="105" spans="1:24" ht="25" customHeight="1">
       <c r="A105" s="2">
         <v>101</v>
       </c>
@@ -5004,10 +5018,10 @@
       <c r="D105" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E105" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F105" s="10"/>
+      <c r="E105" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" s="12"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
@@ -5027,7 +5041,7 @@
       <c r="W105" s="1"/>
       <c r="X105" s="1"/>
     </row>
-    <row r="106" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="106" spans="1:24" ht="16.25" customHeight="1">
       <c r="A106" s="2">
         <v>102</v>
       </c>
@@ -5038,10 +5052,10 @@
         <v>217</v>
       </c>
       <c r="D106" s="2"/>
-      <c r="E106" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F106" s="10"/>
+      <c r="E106" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106" s="12"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
@@ -5061,7 +5075,7 @@
       <c r="W106" s="1"/>
       <c r="X106" s="1"/>
     </row>
-    <row r="107" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="107" spans="1:24" ht="16.25" customHeight="1">
       <c r="A107" s="2">
         <v>103</v>
       </c>
@@ -5072,10 +5086,10 @@
         <v>219</v>
       </c>
       <c r="D107" s="2"/>
-      <c r="E107" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F107" s="10"/>
+      <c r="E107" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" s="12"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
@@ -5095,7 +5109,7 @@
       <c r="W107" s="1"/>
       <c r="X107" s="1"/>
     </row>
-    <row r="108" spans="1:24" ht="25.05" customHeight="1">
+    <row r="108" spans="1:24" ht="25" customHeight="1">
       <c r="A108" s="2">
         <v>104</v>
       </c>
@@ -5108,10 +5122,10 @@
       <c r="D108" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E108" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108" s="10"/>
+      <c r="E108" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108" s="12"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
@@ -5131,7 +5145,7 @@
       <c r="W108" s="1"/>
       <c r="X108" s="1"/>
     </row>
-    <row r="109" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="109" spans="1:24" ht="16.25" customHeight="1">
       <c r="A109" s="2">
         <v>105</v>
       </c>
@@ -5142,10 +5156,10 @@
         <v>223</v>
       </c>
       <c r="D109" s="2"/>
-      <c r="E109" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F109" s="10"/>
+      <c r="E109" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" s="12"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
@@ -5165,29 +5179,29 @@
       <c r="W109" s="1"/>
       <c r="X109" s="1"/>
     </row>
-    <row r="110" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="110" spans="1:24" ht="16.25" customHeight="1">
       <c r="D110" s="5"/>
       <c r="R110" s="6"/>
     </row>
-    <row r="111" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="111" spans="1:24" ht="16.25" customHeight="1">
       <c r="D111" s="5"/>
       <c r="Q111" s="6"/>
     </row>
-    <row r="112" spans="1:24" ht="25.8" customHeight="1">
+    <row r="112" spans="1:24" ht="25.75" customHeight="1">
       <c r="D112" s="5"/>
-      <c r="M112" s="8" t="s">
+      <c r="M112" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="N112" s="8"/>
+      <c r="N112" s="10"/>
       <c r="O112" s="7"/>
       <c r="P112" s="7"/>
       <c r="Q112" s="6"/>
-      <c r="R112" s="9" t="s">
+      <c r="R112" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="S112" s="9"/>
-      <c r="T112" s="9"/>
-      <c r="U112" s="9"/>
+      <c r="S112" s="11"/>
+      <c r="T112" s="11"/>
+      <c r="U112" s="11"/>
       <c r="V112" s="7"/>
       <c r="W112" s="7"/>
       <c r="X112" s="6"/>
@@ -5319,18 +5333,2518 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48541F51-EBDC-504F-9B0C-8B3C84FA32B1}">
+  <dimension ref="A1:G106"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="117" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="e">
+        <f t="shared" ref="G2:G65" si="0">VLOOKUP(C2,H:H,1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" t="s">
+        <v>112</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" t="s">
+        <v>116</v>
+      </c>
+      <c r="D53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" t="s">
+        <v>118</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" t="s">
+        <v>120</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" t="s">
+        <v>124</v>
+      </c>
+      <c r="D57" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" t="s">
+        <v>128</v>
+      </c>
+      <c r="D59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60" t="s">
+        <v>130</v>
+      </c>
+      <c r="D60" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" t="s">
+        <v>132</v>
+      </c>
+      <c r="D61" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" t="s">
+        <v>134</v>
+      </c>
+      <c r="D62" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" t="s">
+        <v>136</v>
+      </c>
+      <c r="D63" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" t="s">
+        <v>138</v>
+      </c>
+      <c r="D64" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" t="s">
+        <v>140</v>
+      </c>
+      <c r="D65" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" t="s">
+        <v>142</v>
+      </c>
+      <c r="D66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" t="s">
+        <v>144</v>
+      </c>
+      <c r="D67" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" t="e">
+        <f t="shared" ref="G66:G106" si="1">VLOOKUP(C67,H:H,1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" t="s">
+        <v>146</v>
+      </c>
+      <c r="D68" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>147</v>
+      </c>
+      <c r="C69" t="s">
+        <v>148</v>
+      </c>
+      <c r="D69" t="s">
+        <v>20</v>
+      </c>
+      <c r="E69" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70" t="s">
+        <v>150</v>
+      </c>
+      <c r="D70" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>151</v>
+      </c>
+      <c r="C71" t="s">
+        <v>152</v>
+      </c>
+      <c r="D71" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>153</v>
+      </c>
+      <c r="C72" t="s">
+        <v>154</v>
+      </c>
+      <c r="D72" t="s">
+        <v>20</v>
+      </c>
+      <c r="E72" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" t="s">
+        <v>156</v>
+      </c>
+      <c r="D73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>157</v>
+      </c>
+      <c r="C74" t="s">
+        <v>158</v>
+      </c>
+      <c r="D74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>159</v>
+      </c>
+      <c r="C75" t="s">
+        <v>160</v>
+      </c>
+      <c r="D75" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>161</v>
+      </c>
+      <c r="C76" t="s">
+        <v>162</v>
+      </c>
+      <c r="D76" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>163</v>
+      </c>
+      <c r="C77" t="s">
+        <v>164</v>
+      </c>
+      <c r="D77" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>165</v>
+      </c>
+      <c r="C78" t="s">
+        <v>166</v>
+      </c>
+      <c r="D78" t="s">
+        <v>20</v>
+      </c>
+      <c r="E78" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>167</v>
+      </c>
+      <c r="C79" t="s">
+        <v>168</v>
+      </c>
+      <c r="D79" t="s">
+        <v>20</v>
+      </c>
+      <c r="E79" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>169</v>
+      </c>
+      <c r="C80" t="s">
+        <v>170</v>
+      </c>
+      <c r="D80" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>171</v>
+      </c>
+      <c r="C81" t="s">
+        <v>172</v>
+      </c>
+      <c r="D81" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>173</v>
+      </c>
+      <c r="C82" t="s">
+        <v>174</v>
+      </c>
+      <c r="D82" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>175</v>
+      </c>
+      <c r="C83" t="s">
+        <v>176</v>
+      </c>
+      <c r="D83" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>177</v>
+      </c>
+      <c r="C84" t="s">
+        <v>178</v>
+      </c>
+      <c r="D84" t="s">
+        <v>179</v>
+      </c>
+      <c r="E84" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>180</v>
+      </c>
+      <c r="C85" t="s">
+        <v>181</v>
+      </c>
+      <c r="D85" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>182</v>
+      </c>
+      <c r="C86" t="s">
+        <v>183</v>
+      </c>
+      <c r="D86" t="s">
+        <v>179</v>
+      </c>
+      <c r="E86" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>184</v>
+      </c>
+      <c r="C87" t="s">
+        <v>185</v>
+      </c>
+      <c r="D87" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>186</v>
+      </c>
+      <c r="C88" t="s">
+        <v>187</v>
+      </c>
+      <c r="D88" t="s">
+        <v>15</v>
+      </c>
+      <c r="E88" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>188</v>
+      </c>
+      <c r="C89" t="s">
+        <v>189</v>
+      </c>
+      <c r="D89" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>190</v>
+      </c>
+      <c r="C90" t="s">
+        <v>191</v>
+      </c>
+      <c r="D90" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>192</v>
+      </c>
+      <c r="C91" t="s">
+        <v>193</v>
+      </c>
+      <c r="D91" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>194</v>
+      </c>
+      <c r="C92" t="s">
+        <v>195</v>
+      </c>
+      <c r="D92" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>196</v>
+      </c>
+      <c r="C93" t="s">
+        <v>197</v>
+      </c>
+      <c r="D93" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" t="s">
+        <v>12</v>
+      </c>
+      <c r="G93" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>198</v>
+      </c>
+      <c r="C94" t="s">
+        <v>199</v>
+      </c>
+      <c r="D94" t="s">
+        <v>20</v>
+      </c>
+      <c r="E94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>200</v>
+      </c>
+      <c r="C95" t="s">
+        <v>201</v>
+      </c>
+      <c r="D95" t="s">
+        <v>20</v>
+      </c>
+      <c r="E95" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>202</v>
+      </c>
+      <c r="C96" t="s">
+        <v>203</v>
+      </c>
+      <c r="D96" t="s">
+        <v>20</v>
+      </c>
+      <c r="E96" t="s">
+        <v>12</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>204</v>
+      </c>
+      <c r="C97" t="s">
+        <v>205</v>
+      </c>
+      <c r="D97" t="s">
+        <v>179</v>
+      </c>
+      <c r="E97" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>206</v>
+      </c>
+      <c r="C98" t="s">
+        <v>207</v>
+      </c>
+      <c r="D98" t="s">
+        <v>20</v>
+      </c>
+      <c r="E98" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>208</v>
+      </c>
+      <c r="C99" t="s">
+        <v>209</v>
+      </c>
+      <c r="D99" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>210</v>
+      </c>
+      <c r="C100" t="s">
+        <v>211</v>
+      </c>
+      <c r="D100" t="s">
+        <v>20</v>
+      </c>
+      <c r="E100" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>212</v>
+      </c>
+      <c r="C101" t="s">
+        <v>213</v>
+      </c>
+      <c r="D101" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>214</v>
+      </c>
+      <c r="C102" t="s">
+        <v>215</v>
+      </c>
+      <c r="D102" t="s">
+        <v>15</v>
+      </c>
+      <c r="E102" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>216</v>
+      </c>
+      <c r="C103" t="s">
+        <v>217</v>
+      </c>
+      <c r="E103" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>218</v>
+      </c>
+      <c r="C104" t="s">
+        <v>219</v>
+      </c>
+      <c r="E104" t="s">
+        <v>12</v>
+      </c>
+      <c r="G104" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>220</v>
+      </c>
+      <c r="C105" t="s">
+        <v>221</v>
+      </c>
+      <c r="D105" t="s">
+        <v>15</v>
+      </c>
+      <c r="E105" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>222</v>
+      </c>
+      <c r="C106" t="s">
+        <v>223</v>
+      </c>
+      <c r="E106" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C18899A-DF83-422E-853E-11296CD5822F}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:R195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="128" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView zoomScale="128" workbookViewId="0">
+      <selection activeCell="G8" sqref="A1:G106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5357,7 +7871,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5377,7 +7891,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="str">
-        <f>VLOOKUP(C2,H:H,1,0)</f>
+        <f t="shared" ref="G2:G33" si="0">VLOOKUP(C2,H:H,1,0)</f>
         <v>元雨桐</v>
       </c>
     </row>
@@ -5400,12 +7914,11 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" t="e">
-        <f>VLOOKUP(C3,H:H,1,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" hidden="1">
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5425,11 +7938,11 @@
         <v>1</v>
       </c>
       <c r="G4" t="str">
-        <f>VLOOKUP(C4,H:H,1,0)</f>
+        <f t="shared" si="0"/>
         <v>任勇宁</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5449,11 +7962,11 @@
         <v>1</v>
       </c>
       <c r="G5" t="str">
-        <f>VLOOKUP(C5,H:H,1,0)</f>
+        <f t="shared" si="0"/>
         <v>杜非原</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5473,11 +7986,11 @@
         <v>1</v>
       </c>
       <c r="G6" t="str">
-        <f>VLOOKUP(C6,H:H,1,0)</f>
+        <f t="shared" si="0"/>
         <v>王启鹏</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5497,11 +8010,11 @@
         <v>1</v>
       </c>
       <c r="G7" t="str">
-        <f>VLOOKUP(C7,H:H,1,0)</f>
+        <f t="shared" si="0"/>
         <v>李屹桦</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5521,11 +8034,11 @@
         <v>1</v>
       </c>
       <c r="G8" t="str">
-        <f>VLOOKUP(C8,H:H,1,0)</f>
+        <f t="shared" si="0"/>
         <v>李知非</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5545,11 +8058,11 @@
         <v>1</v>
       </c>
       <c r="G9" t="str">
-        <f>VLOOKUP(C9,H:H,1,0)</f>
+        <f t="shared" si="0"/>
         <v>李雨城</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5569,11 +8082,11 @@
         <v>1</v>
       </c>
       <c r="G10" t="str">
-        <f>VLOOKUP(C10,H:H,1,0)</f>
+        <f t="shared" si="0"/>
         <v>柳皓然</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5593,7 +8106,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="str">
-        <f>VLOOKUP(C11,H:H,1,0)</f>
+        <f t="shared" si="0"/>
         <v>王鲲翔</v>
       </c>
     </row>
@@ -5617,7 +8130,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="e">
-        <f>VLOOKUP(C12,H:H,1,0)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -5640,12 +8153,11 @@
       <c r="F13">
         <v>1</v>
       </c>
-      <c r="G13" t="e">
-        <f>VLOOKUP(C13,H:H,1,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" hidden="1">
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5665,11 +8177,11 @@
         <v>1</v>
       </c>
       <c r="G14" t="str">
-        <f>VLOOKUP(C14,H:H,1,0)</f>
+        <f t="shared" si="0"/>
         <v>张天翼</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5689,11 +8201,11 @@
         <v>1</v>
       </c>
       <c r="G15" t="str">
-        <f>VLOOKUP(C15,H:H,1,0)</f>
+        <f t="shared" si="0"/>
         <v>王紫萌</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5713,7 +8225,7 @@
         <v>1</v>
       </c>
       <c r="G16" t="str">
-        <f>VLOOKUP(C16,H:H,1,0)</f>
+        <f t="shared" si="0"/>
         <v>刘晓彤</v>
       </c>
     </row>
@@ -5737,11 +8249,11 @@
         <v>1</v>
       </c>
       <c r="G17" t="e">
-        <f>VLOOKUP(C17,H:H,1,0)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5761,11 +8273,11 @@
         <v>1</v>
       </c>
       <c r="G18" t="str">
-        <f>VLOOKUP(C18,H:H,1,0)</f>
+        <f t="shared" si="0"/>
         <v>王宇航</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5785,11 +8297,11 @@
         <v>1</v>
       </c>
       <c r="G19" t="str">
-        <f>VLOOKUP(C19,H:H,1,0)</f>
+        <f t="shared" si="0"/>
         <v>郭子烨</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5809,11 +8321,11 @@
         <v>1</v>
       </c>
       <c r="G20" t="str">
-        <f>VLOOKUP(C20,H:H,1,0)</f>
+        <f t="shared" si="0"/>
         <v>冯悦</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5833,11 +8345,11 @@
         <v>1</v>
       </c>
       <c r="G21" t="str">
-        <f>VLOOKUP(C21,H:H,1,0)</f>
+        <f t="shared" si="0"/>
         <v>王彤旭</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5857,7 +8369,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="str">
-        <f>VLOOKUP(C22,H:H,1,0)</f>
+        <f t="shared" si="0"/>
         <v>冯正琪</v>
       </c>
     </row>
@@ -5881,11 +8393,11 @@
         <v>1</v>
       </c>
       <c r="G23" t="e">
-        <f>VLOOKUP(C23,H:H,1,0)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5905,11 +8417,11 @@
         <v>1</v>
       </c>
       <c r="G24" t="str">
-        <f>VLOOKUP(C24,H:H,1,0)</f>
+        <f t="shared" si="0"/>
         <v>魏子洪</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5929,7 +8441,7 @@
         <v>1</v>
       </c>
       <c r="G25" t="str">
-        <f>VLOOKUP(C25,H:H,1,0)</f>
+        <f t="shared" si="0"/>
         <v>樊卓通</v>
       </c>
     </row>
@@ -5953,11 +8465,11 @@
         <v>1</v>
       </c>
       <c r="G26" t="e">
-        <f>VLOOKUP(C26,H:H,1,0)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5977,7 +8489,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="str">
-        <f>VLOOKUP(C27,H:H,1,0)</f>
+        <f t="shared" si="0"/>
         <v>王熹</v>
       </c>
     </row>
@@ -6001,11 +8513,11 @@
         <v>1</v>
       </c>
       <c r="G28" t="e">
-        <f>VLOOKUP(C28,H:H,1,0)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1">
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6025,11 +8537,11 @@
         <v>1</v>
       </c>
       <c r="G29" t="str">
-        <f>VLOOKUP(C29,H:H,1,0)</f>
+        <f t="shared" si="0"/>
         <v>李京京</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6049,11 +8561,11 @@
         <v>1</v>
       </c>
       <c r="G30" t="str">
-        <f>VLOOKUP(C30,H:H,1,0)</f>
+        <f t="shared" si="0"/>
         <v>相博元</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6073,11 +8585,11 @@
         <v>1</v>
       </c>
       <c r="G31" t="str">
-        <f>VLOOKUP(C31,H:H,1,0)</f>
+        <f t="shared" si="0"/>
         <v>谷方涛</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1">
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6097,11 +8609,11 @@
         <v>1</v>
       </c>
       <c r="G32" t="str">
-        <f>VLOOKUP(C32,H:H,1,0)</f>
+        <f t="shared" si="0"/>
         <v>李越洋</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1">
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6121,11 +8633,11 @@
         <v>1</v>
       </c>
       <c r="G33" t="str">
-        <f>VLOOKUP(C33,H:H,1,0)</f>
+        <f t="shared" si="0"/>
         <v>刘晗煜</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1">
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>33</v>
       </c>
@@ -6145,11 +8657,11 @@
         <v>1</v>
       </c>
       <c r="G34" t="str">
-        <f>VLOOKUP(C34,H:H,1,0)</f>
+        <f t="shared" ref="G34:G65" si="1">VLOOKUP(C34,H:H,1,0)</f>
         <v>张皓达</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1">
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>34</v>
       </c>
@@ -6169,11 +8681,11 @@
         <v>1</v>
       </c>
       <c r="G35" t="str">
-        <f>VLOOKUP(C35,H:H,1,0)</f>
+        <f t="shared" si="1"/>
         <v>赵培宇</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1">
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6193,11 +8705,11 @@
         <v>1</v>
       </c>
       <c r="G36" t="str">
-        <f>VLOOKUP(C36,H:H,1,0)</f>
+        <f t="shared" si="1"/>
         <v>张博飞</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1">
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6217,11 +8729,11 @@
         <v>1</v>
       </c>
       <c r="G37" t="str">
-        <f>VLOOKUP(C37,H:H,1,0)</f>
+        <f t="shared" si="1"/>
         <v>刘耀阳</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1">
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6241,11 +8753,11 @@
         <v>1</v>
       </c>
       <c r="G38" t="str">
-        <f>VLOOKUP(C38,H:H,1,0)</f>
+        <f t="shared" si="1"/>
         <v>陈鑫</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1">
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6265,11 +8777,11 @@
         <v>1</v>
       </c>
       <c r="G39" t="str">
-        <f>VLOOKUP(C39,H:H,1,0)</f>
+        <f t="shared" si="1"/>
         <v>王奎璋</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1">
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6289,7 +8801,7 @@
         <v>1</v>
       </c>
       <c r="G40" t="str">
-        <f>VLOOKUP(C40,H:H,1,0)</f>
+        <f t="shared" si="1"/>
         <v>孟诗淇</v>
       </c>
     </row>
@@ -6312,9 +8824,8 @@
       <c r="F41">
         <v>1</v>
       </c>
-      <c r="G41" t="e">
-        <f>VLOOKUP(C41,H:H,1,0)</f>
-        <v>#N/A</v>
+      <c r="G41">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -6337,11 +8848,11 @@
         <v>1</v>
       </c>
       <c r="G42" t="e">
-        <f>VLOOKUP(C42,H:H,1,0)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1">
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>42</v>
       </c>
@@ -6361,11 +8872,11 @@
         <v>1</v>
       </c>
       <c r="G43" t="str">
-        <f>VLOOKUP(C43,H:H,1,0)</f>
+        <f t="shared" si="1"/>
         <v>张晋恺</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1">
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6385,11 +8896,11 @@
         <v>1</v>
       </c>
       <c r="G44" t="str">
-        <f>VLOOKUP(C44,H:H,1,0)</f>
+        <f t="shared" si="1"/>
         <v>王子佳</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1">
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6409,11 +8920,11 @@
         <v>1</v>
       </c>
       <c r="G45" t="str">
-        <f>VLOOKUP(C45,H:H,1,0)</f>
+        <f t="shared" si="1"/>
         <v>陆宁馨</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1">
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6433,11 +8944,11 @@
         <v>1</v>
       </c>
       <c r="G46" t="str">
-        <f>VLOOKUP(C46,H:H,1,0)</f>
+        <f t="shared" si="1"/>
         <v>董毅</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1">
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6457,11 +8968,11 @@
         <v>1</v>
       </c>
       <c r="G47" t="str">
-        <f>VLOOKUP(C47,H:H,1,0)</f>
+        <f t="shared" si="1"/>
         <v>秦子衿</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1">
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6481,11 +8992,11 @@
         <v>1</v>
       </c>
       <c r="G48" t="str">
-        <f>VLOOKUP(C48,H:H,1,0)</f>
+        <f t="shared" si="1"/>
         <v>沈海涛</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1">
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6505,11 +9016,11 @@
         <v>1</v>
       </c>
       <c r="G49" t="str">
-        <f>VLOOKUP(C49,H:H,1,0)</f>
+        <f t="shared" si="1"/>
         <v>徐耀文</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1">
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6529,11 +9040,11 @@
         <v>1</v>
       </c>
       <c r="G50" t="str">
-        <f>VLOOKUP(C50,H:H,1,0)</f>
+        <f t="shared" si="1"/>
         <v>雷思羽</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1">
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6553,7 +9064,7 @@
         <v>1</v>
       </c>
       <c r="G51" t="str">
-        <f>VLOOKUP(C51,H:H,1,0)</f>
+        <f t="shared" si="1"/>
         <v>肖宇辰</v>
       </c>
     </row>
@@ -6577,7 +9088,7 @@
         <v>1</v>
       </c>
       <c r="G52" t="e">
-        <f>VLOOKUP(C52,H:H,1,0)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -6600,12 +9111,11 @@
       <c r="F53">
         <v>1</v>
       </c>
-      <c r="G53" t="e">
-        <f>VLOOKUP(C53,H:H,1,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" hidden="1">
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6625,11 +9135,11 @@
         <v>1</v>
       </c>
       <c r="G54" t="str">
-        <f>VLOOKUP(C54,H:H,1,0)</f>
+        <f t="shared" si="1"/>
         <v>邹永康</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1">
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6649,11 +9159,11 @@
         <v>1</v>
       </c>
       <c r="G55" t="str">
-        <f>VLOOKUP(C55,H:H,1,0)</f>
+        <f t="shared" si="1"/>
         <v>任禹然</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1">
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6673,11 +9183,11 @@
         <v>1</v>
       </c>
       <c r="G56" t="str">
-        <f>VLOOKUP(C56,H:H,1,0)</f>
+        <f t="shared" si="1"/>
         <v>盛舒扬</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1">
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6697,11 +9207,11 @@
         <v>1</v>
       </c>
       <c r="G57" t="str">
-        <f>VLOOKUP(C57,H:H,1,0)</f>
+        <f t="shared" si="1"/>
         <v>冯友和</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1">
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6721,11 +9231,11 @@
         <v>1</v>
       </c>
       <c r="G58" t="str">
-        <f>VLOOKUP(C58,H:H,1,0)</f>
+        <f t="shared" si="1"/>
         <v>罗澜</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1">
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6745,11 +9255,11 @@
         <v>1</v>
       </c>
       <c r="G59" t="str">
-        <f>VLOOKUP(C59,H:H,1,0)</f>
+        <f t="shared" si="1"/>
         <v>冯浈淇</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1">
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6769,11 +9279,11 @@
         <v>1</v>
       </c>
       <c r="G60" t="str">
-        <f>VLOOKUP(C60,H:H,1,0)</f>
+        <f t="shared" si="1"/>
         <v>蒋昊洋</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1">
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6793,11 +9303,11 @@
         <v>1</v>
       </c>
       <c r="G61" t="str">
-        <f>VLOOKUP(C61,H:H,1,0)</f>
+        <f t="shared" si="1"/>
         <v>祝凯</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1">
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6817,11 +9327,11 @@
         <v>1</v>
       </c>
       <c r="G62" t="str">
-        <f>VLOOKUP(C62,H:H,1,0)</f>
+        <f t="shared" si="1"/>
         <v>张午己</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1">
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6841,7 +9351,7 @@
         <v>1</v>
       </c>
       <c r="G63" t="str">
-        <f>VLOOKUP(C63,H:H,1,0)</f>
+        <f t="shared" si="1"/>
         <v>李懿哲</v>
       </c>
     </row>
@@ -6862,11 +9372,11 @@
         <v>12</v>
       </c>
       <c r="G64" t="e">
-        <f>VLOOKUP(C64,H:H,1,0)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1">
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6886,11 +9396,11 @@
         <v>1</v>
       </c>
       <c r="G65" t="str">
-        <f>VLOOKUP(C65,H:H,1,0)</f>
+        <f t="shared" si="1"/>
         <v>胡宇</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1">
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>65</v>
       </c>
@@ -6910,11 +9420,11 @@
         <v>1</v>
       </c>
       <c r="G66" t="str">
-        <f>VLOOKUP(C66,H:H,1,0)</f>
+        <f t="shared" ref="G66:G97" si="2">VLOOKUP(C66,H:H,1,0)</f>
         <v>屠智星</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1">
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6934,11 +9444,11 @@
         <v>1</v>
       </c>
       <c r="G67" t="str">
-        <f>VLOOKUP(C67,H:H,1,0)</f>
+        <f t="shared" si="2"/>
         <v>魏依琳</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1">
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6958,11 +9468,11 @@
         <v>1</v>
       </c>
       <c r="G68" t="str">
-        <f>VLOOKUP(C68,H:H,1,0)</f>
+        <f t="shared" si="2"/>
         <v>胡梦溪</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1">
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6982,11 +9492,11 @@
         <v>1</v>
       </c>
       <c r="G69" t="str">
-        <f>VLOOKUP(C69,H:H,1,0)</f>
+        <f t="shared" si="2"/>
         <v>梅祎航</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1">
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>69</v>
       </c>
@@ -7006,11 +9516,11 @@
         <v>1</v>
       </c>
       <c r="G70" t="str">
-        <f>VLOOKUP(C70,H:H,1,0)</f>
+        <f t="shared" si="2"/>
         <v>李语馨</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1">
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>70</v>
       </c>
@@ -7030,11 +9540,11 @@
         <v>1</v>
       </c>
       <c r="G71" t="str">
-        <f>VLOOKUP(C71,H:H,1,0)</f>
+        <f t="shared" si="2"/>
         <v>石泉</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1">
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>71</v>
       </c>
@@ -7054,11 +9564,11 @@
         <v>1</v>
       </c>
       <c r="G72" t="str">
-        <f>VLOOKUP(C72,H:H,1,0)</f>
+        <f t="shared" si="2"/>
         <v>周钰添</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1">
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>72</v>
       </c>
@@ -7078,11 +9588,11 @@
         <v>1</v>
       </c>
       <c r="G73" t="str">
-        <f>VLOOKUP(C73,H:H,1,0)</f>
+        <f t="shared" si="2"/>
         <v>杜海乐</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1">
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>73</v>
       </c>
@@ -7102,11 +9612,11 @@
         <v>1</v>
       </c>
       <c r="G74" t="str">
-        <f>VLOOKUP(C74,H:H,1,0)</f>
+        <f t="shared" si="2"/>
         <v>王煜德</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1">
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>74</v>
       </c>
@@ -7126,11 +9636,11 @@
         <v>1</v>
       </c>
       <c r="G75" t="str">
-        <f>VLOOKUP(C75,H:H,1,0)</f>
+        <f t="shared" si="2"/>
         <v>路婧婕</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1">
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>75</v>
       </c>
@@ -7150,7 +9660,7 @@
         <v>1</v>
       </c>
       <c r="G76" t="str">
-        <f>VLOOKUP(C76,H:H,1,0)</f>
+        <f t="shared" si="2"/>
         <v>邱海峰</v>
       </c>
     </row>
@@ -7171,11 +9681,11 @@
         <v>12</v>
       </c>
       <c r="G77" t="e">
-        <f>VLOOKUP(C77,H:H,1,0)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1">
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>77</v>
       </c>
@@ -7195,11 +9705,11 @@
         <v>1</v>
       </c>
       <c r="G78" t="str">
-        <f>VLOOKUP(C78,H:H,1,0)</f>
+        <f t="shared" si="2"/>
         <v>付弋洋</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1">
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>78</v>
       </c>
@@ -7219,11 +9729,11 @@
         <v>1</v>
       </c>
       <c r="G79" t="str">
-        <f>VLOOKUP(C79,H:H,1,0)</f>
+        <f t="shared" si="2"/>
         <v>李修羽</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1">
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>79</v>
       </c>
@@ -7243,11 +9753,11 @@
         <v>1</v>
       </c>
       <c r="G80" t="str">
-        <f>VLOOKUP(C80,H:H,1,0)</f>
+        <f t="shared" si="2"/>
         <v>何岱楠</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1">
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>80</v>
       </c>
@@ -7267,11 +9777,11 @@
         <v>1</v>
       </c>
       <c r="G81" t="str">
-        <f>VLOOKUP(C81,H:H,1,0)</f>
+        <f t="shared" si="2"/>
         <v>冉皓月</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1">
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>81</v>
       </c>
@@ -7291,11 +9801,11 @@
         <v>1</v>
       </c>
       <c r="G82" t="str">
-        <f>VLOOKUP(C82,H:H,1,0)</f>
+        <f t="shared" si="2"/>
         <v>施雯</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1">
+    <row r="83" spans="1:7">
       <c r="A83">
         <v>82</v>
       </c>
@@ -7315,11 +9825,11 @@
         <v>1</v>
       </c>
       <c r="G83" t="str">
-        <f>VLOOKUP(C83,H:H,1,0)</f>
+        <f t="shared" si="2"/>
         <v>雷桐</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1">
+    <row r="84" spans="1:7">
       <c r="A84">
         <v>83</v>
       </c>
@@ -7339,11 +9849,11 @@
         <v>1</v>
       </c>
       <c r="G84" t="str">
-        <f>VLOOKUP(C84,H:H,1,0)</f>
+        <f t="shared" si="2"/>
         <v>肖涵语</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1">
+    <row r="85" spans="1:7">
       <c r="A85">
         <v>84</v>
       </c>
@@ -7363,11 +9873,11 @@
         <v>1</v>
       </c>
       <c r="G85" t="str">
-        <f>VLOOKUP(C85,H:H,1,0)</f>
+        <f t="shared" si="2"/>
         <v>罗雨裴</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1">
+    <row r="86" spans="1:7">
       <c r="A86">
         <v>85</v>
       </c>
@@ -7387,11 +9897,11 @@
         <v>1</v>
       </c>
       <c r="G86" t="str">
-        <f>VLOOKUP(C86,H:H,1,0)</f>
+        <f t="shared" si="2"/>
         <v>任昱菡</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1">
+    <row r="87" spans="1:7">
       <c r="A87">
         <v>86</v>
       </c>
@@ -7411,11 +9921,11 @@
         <v>1</v>
       </c>
       <c r="G87" t="str">
-        <f>VLOOKUP(C87,H:H,1,0)</f>
+        <f t="shared" si="2"/>
         <v>樊昊天</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1">
+    <row r="88" spans="1:7">
       <c r="A88">
         <v>87</v>
       </c>
@@ -7435,11 +9945,11 @@
         <v>1</v>
       </c>
       <c r="G88" t="str">
-        <f>VLOOKUP(C88,H:H,1,0)</f>
+        <f t="shared" si="2"/>
         <v>何维佳</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1">
+    <row r="89" spans="1:7">
       <c r="A89">
         <v>88</v>
       </c>
@@ -7459,11 +9969,11 @@
         <v>1</v>
       </c>
       <c r="G89" t="str">
-        <f>VLOOKUP(C89,H:H,1,0)</f>
+        <f t="shared" si="2"/>
         <v>白锦峄</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1">
+    <row r="90" spans="1:7">
       <c r="A90">
         <v>89</v>
       </c>
@@ -7483,11 +9993,11 @@
         <v>1</v>
       </c>
       <c r="G90" t="str">
-        <f>VLOOKUP(C90,H:H,1,0)</f>
+        <f t="shared" si="2"/>
         <v>杨斯媛</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1">
+    <row r="91" spans="1:7">
       <c r="A91">
         <v>90</v>
       </c>
@@ -7507,11 +10017,11 @@
         <v>1</v>
       </c>
       <c r="G91" t="str">
-        <f>VLOOKUP(C91,H:H,1,0)</f>
+        <f t="shared" si="2"/>
         <v>罗垚平</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1">
+    <row r="92" spans="1:7">
       <c r="A92">
         <v>91</v>
       </c>
@@ -7531,7 +10041,7 @@
         <v>1</v>
       </c>
       <c r="G92" t="str">
-        <f>VLOOKUP(C92,H:H,1,0)</f>
+        <f t="shared" si="2"/>
         <v>罗梅</v>
       </c>
     </row>
@@ -7552,11 +10062,11 @@
         <v>12</v>
       </c>
       <c r="G93" t="e">
-        <f>VLOOKUP(C93,H:H,1,0)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1">
+    <row r="94" spans="1:7">
       <c r="A94">
         <v>93</v>
       </c>
@@ -7576,11 +10086,11 @@
         <v>1</v>
       </c>
       <c r="G94" t="str">
-        <f>VLOOKUP(C94,H:H,1,0)</f>
+        <f t="shared" si="2"/>
         <v>陈宇轩</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1">
+    <row r="95" spans="1:7">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7600,11 +10110,11 @@
         <v>1</v>
       </c>
       <c r="G95" t="str">
-        <f>VLOOKUP(C95,H:H,1,0)</f>
+        <f t="shared" si="2"/>
         <v>彭文博</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1">
+    <row r="96" spans="1:7">
       <c r="A96">
         <v>95</v>
       </c>
@@ -7624,11 +10134,11 @@
         <v>1</v>
       </c>
       <c r="G96" t="str">
-        <f>VLOOKUP(C96,H:H,1,0)</f>
+        <f t="shared" si="2"/>
         <v>房向南</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1">
+    <row r="97" spans="1:8">
       <c r="A97">
         <v>96</v>
       </c>
@@ -7648,11 +10158,11 @@
         <v>1</v>
       </c>
       <c r="G97" t="str">
-        <f>VLOOKUP(C97,H:H,1,0)</f>
+        <f t="shared" si="2"/>
         <v>张韫哲</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1">
+    <row r="98" spans="1:8">
       <c r="A98">
         <v>97</v>
       </c>
@@ -7672,11 +10182,11 @@
         <v>1</v>
       </c>
       <c r="G98" t="str">
-        <f>VLOOKUP(C98,H:H,1,0)</f>
+        <f t="shared" ref="G98:G106" si="3">VLOOKUP(C98,H:H,1,0)</f>
         <v>杨东录</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1">
+    <row r="99" spans="1:8">
       <c r="A99">
         <v>98</v>
       </c>
@@ -7696,11 +10206,11 @@
         <v>1</v>
       </c>
       <c r="G99" t="str">
-        <f>VLOOKUP(C99,H:H,1,0)</f>
+        <f t="shared" si="3"/>
         <v>刘一辰</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1">
+    <row r="100" spans="1:8">
       <c r="A100">
         <v>99</v>
       </c>
@@ -7720,11 +10230,11 @@
         <v>1</v>
       </c>
       <c r="G100" t="str">
-        <f>VLOOKUP(C100,H:H,1,0)</f>
+        <f t="shared" si="3"/>
         <v>于佳鑫</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1">
+    <row r="101" spans="1:8">
       <c r="A101">
         <v>100</v>
       </c>
@@ -7744,11 +10254,11 @@
         <v>1</v>
       </c>
       <c r="G101" t="str">
-        <f>VLOOKUP(C101,H:H,1,0)</f>
+        <f t="shared" si="3"/>
         <v>王明硕</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1">
+    <row r="102" spans="1:8">
       <c r="A102">
         <v>101</v>
       </c>
@@ -7768,7 +10278,7 @@
         <v>1</v>
       </c>
       <c r="G102" t="str">
-        <f>VLOOKUP(C102,H:H,1,0)</f>
+        <f t="shared" si="3"/>
         <v>李磊</v>
       </c>
     </row>
@@ -7786,7 +10296,7 @@
         <v>12</v>
       </c>
       <c r="G103" t="e">
-        <f>VLOOKUP(C103,H:H,1,0)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -7804,7 +10314,7 @@
         <v>12</v>
       </c>
       <c r="G104" t="e">
-        <f>VLOOKUP(C104,H:H,1,0)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -7825,7 +10335,7 @@
         <v>12</v>
       </c>
       <c r="G105" t="e">
-        <f>VLOOKUP(C105,H:H,1,0)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -7843,461 +10353,455 @@
         <v>12</v>
       </c>
       <c r="G106" t="e">
-        <f>VLOOKUP(C106,H:H,1,0)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="108" spans="1:8">
-      <c r="H108" s="14" t="s">
+      <c r="H108" s="8" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="109" spans="1:8">
-      <c r="H109" s="14" t="s">
+      <c r="H109" s="8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="110" spans="1:8">
-      <c r="H110" s="14" t="s">
+      <c r="H110" s="8" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="111" spans="1:8">
-      <c r="H111" s="14" t="s">
+      <c r="H111" s="8" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="112" spans="1:8">
-      <c r="H112" s="14" t="s">
+      <c r="H112" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="113" spans="8:18">
-      <c r="H113" s="14" t="s">
+      <c r="H113" s="8" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="114" spans="8:18">
-      <c r="H114" s="14" t="s">
+      <c r="H114" s="8" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="115" spans="8:18">
-      <c r="H115" s="14" t="s">
+      <c r="H115" s="8" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="116" spans="8:18">
-      <c r="H116" s="14" t="s">
+      <c r="H116" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="117" spans="8:18">
-      <c r="H117" s="14" t="s">
+      <c r="H117" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="Q117" s="14"/>
-      <c r="R117" s="14"/>
+      <c r="Q117" s="8"/>
+      <c r="R117" s="8"/>
     </row>
     <row r="118" spans="8:18">
-      <c r="H118" s="14" t="s">
+      <c r="H118" s="8" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="119" spans="8:18">
-      <c r="H119" s="14" t="s">
+      <c r="H119" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="120" spans="8:18">
-      <c r="H120" s="14" t="s">
+      <c r="H120" s="8" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="121" spans="8:18">
-      <c r="H121" s="14" t="s">
+      <c r="H121" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="122" spans="8:18">
-      <c r="H122" s="14" t="s">
+      <c r="H122" s="8" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="123" spans="8:18">
-      <c r="H123" s="14" t="s">
+      <c r="H123" s="8" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="124" spans="8:18">
-      <c r="H124" s="14" t="s">
+      <c r="H124" s="8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="125" spans="8:18">
-      <c r="H125" s="14" t="s">
+      <c r="H125" s="8" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="126" spans="8:18">
-      <c r="H126" s="14" t="s">
+      <c r="H126" s="8" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="127" spans="8:18">
-      <c r="H127" s="14" t="s">
+      <c r="H127" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="128" spans="8:18">
-      <c r="H128" s="14" t="s">
+      <c r="H128" s="8" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="129" spans="8:8">
-      <c r="H129" s="14" t="s">
+      <c r="H129" s="8" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="130" spans="8:8">
-      <c r="H130" s="14" t="s">
+      <c r="H130" s="8" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="131" spans="8:8">
-      <c r="H131" s="14" t="s">
+      <c r="H131" s="8" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="132" spans="8:8">
-      <c r="H132" s="14" t="s">
+      <c r="H132" s="8" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="133" spans="8:8">
-      <c r="H133" s="14" t="s">
+      <c r="H133" s="8" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="134" spans="8:8">
-      <c r="H134" s="14" t="s">
+      <c r="H134" s="8" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="135" spans="8:8">
-      <c r="H135" s="14" t="s">
+      <c r="H135" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="136" spans="8:8">
-      <c r="H136" s="15" t="s">
+      <c r="H136" s="9" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="137" spans="8:8">
-      <c r="H137" s="14" t="s">
+      <c r="H137" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="138" spans="8:8">
-      <c r="H138" s="14" t="s">
+      <c r="H138" s="8" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="139" spans="8:8">
-      <c r="H139" s="14" t="s">
+      <c r="H139" s="8" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="140" spans="8:8">
-      <c r="H140" s="14" t="s">
+      <c r="H140" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="141" spans="8:8">
-      <c r="H141" s="14" t="s">
+      <c r="H141" s="8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="142" spans="8:8">
-      <c r="H142" s="14" t="s">
+      <c r="H142" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="143" spans="8:8">
-      <c r="H143" s="14" t="s">
+      <c r="H143" s="8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="144" spans="8:8">
-      <c r="H144" s="14" t="s">
+      <c r="H144" s="8" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="145" spans="8:8">
-      <c r="H145" s="14" t="s">
+      <c r="H145" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="146" spans="8:8">
-      <c r="H146" s="14" t="s">
+      <c r="H146" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="147" spans="8:8">
-      <c r="H147" s="14" t="s">
+      <c r="H147" s="8" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="148" spans="8:8">
-      <c r="H148" s="14" t="s">
+      <c r="H148" s="8" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="149" spans="8:8">
-      <c r="H149" s="14" t="s">
+      <c r="H149" s="8" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="150" spans="8:8">
-      <c r="H150" s="14" t="s">
+      <c r="H150" s="8" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="151" spans="8:8">
-      <c r="H151" s="14" t="s">
+      <c r="H151" s="8" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="152" spans="8:8">
-      <c r="H152" s="14" t="s">
+      <c r="H152" s="8" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="153" spans="8:8">
-      <c r="H153" s="14" t="s">
+      <c r="H153" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="154" spans="8:8">
-      <c r="H154" s="14" t="s">
+      <c r="H154" s="8" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="155" spans="8:8">
-      <c r="H155" s="14" t="s">
+      <c r="H155" s="8" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="156" spans="8:8">
-      <c r="H156" s="14" t="s">
+      <c r="H156" s="8" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="157" spans="8:8">
-      <c r="H157" s="14" t="s">
+      <c r="H157" s="8" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="158" spans="8:8">
-      <c r="H158" s="14" t="s">
+      <c r="H158" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="159" spans="8:8">
-      <c r="H159" s="14" t="s">
+      <c r="H159" s="8" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="160" spans="8:8">
-      <c r="H160" s="14" t="s">
+      <c r="H160" s="8" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="161" spans="8:8">
-      <c r="H161" s="14" t="s">
+      <c r="H161" s="8" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="162" spans="8:8">
-      <c r="H162" s="15" t="s">
+      <c r="H162" s="9" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="163" spans="8:8">
-      <c r="H163" s="14" t="s">
+      <c r="H163" s="8" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="164" spans="8:8">
-      <c r="H164" s="14" t="s">
+      <c r="H164" s="8" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="165" spans="8:8">
-      <c r="H165" s="14" t="s">
+      <c r="H165" s="8" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="166" spans="8:8">
-      <c r="H166" s="14" t="s">
+      <c r="H166" s="8" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="167" spans="8:8">
-      <c r="H167" s="14" t="s">
+      <c r="H167" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="168" spans="8:8">
-      <c r="H168" s="14" t="s">
+      <c r="H168" s="8" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="169" spans="8:8">
-      <c r="H169" s="14" t="s">
+      <c r="H169" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="170" spans="8:8">
-      <c r="H170" s="14" t="s">
+      <c r="H170" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="171" spans="8:8">
-      <c r="H171" s="14" t="s">
+      <c r="H171" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="172" spans="8:8">
-      <c r="H172" s="14" t="s">
+      <c r="H172" s="8" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="173" spans="8:8">
-      <c r="H173" s="14" t="s">
+      <c r="H173" s="8" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="174" spans="8:8">
-      <c r="H174" s="14" t="s">
+      <c r="H174" s="8" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="175" spans="8:8">
-      <c r="H175" s="14" t="s">
+      <c r="H175" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="176" spans="8:8">
-      <c r="H176" s="14" t="s">
+      <c r="H176" s="8" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="177" spans="8:8">
-      <c r="H177" s="14" t="s">
+      <c r="H177" s="8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="178" spans="8:8">
-      <c r="H178" s="14" t="s">
+      <c r="H178" s="8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="179" spans="8:8">
-      <c r="H179" s="14" t="s">
+      <c r="H179" s="8" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="180" spans="8:8">
-      <c r="H180" s="14" t="s">
+      <c r="H180" s="8" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="181" spans="8:8">
-      <c r="H181" s="14" t="s">
+      <c r="H181" s="8" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="182" spans="8:8">
-      <c r="H182" s="14" t="s">
+      <c r="H182" s="8" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="183" spans="8:8">
-      <c r="H183" s="14" t="s">
+      <c r="H183" s="8" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="184" spans="8:8">
-      <c r="H184" s="14" t="s">
+      <c r="H184" s="8" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="185" spans="8:8">
-      <c r="H185" s="14" t="s">
+      <c r="H185" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="186" spans="8:8">
-      <c r="H186" s="14" t="s">
+      <c r="H186" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="187" spans="8:8">
-      <c r="H187" s="14" t="s">
+      <c r="H187" s="8" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="188" spans="8:8">
-      <c r="H188" s="14" t="s">
+      <c r="H188" s="8" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="189" spans="8:8">
-      <c r="H189" s="14" t="s">
+      <c r="H189" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="190" spans="8:8">
-      <c r="H190" s="14" t="s">
+      <c r="H190" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="191" spans="8:8">
-      <c r="H191" s="14" t="s">
+      <c r="H191" s="8" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="192" spans="8:8">
-      <c r="H192" s="14" t="s">
+      <c r="H192" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="193" spans="8:8">
-      <c r="H193" s="15" t="s">
+      <c r="H193" s="9" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="194" spans="8:8">
-      <c r="H194" s="14" t="s">
+      <c r="H194" s="8" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="195" spans="8:8">
-      <c r="H195" s="14" t="s">
+      <c r="H195" s="8" t="s">
         <v>118</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G106" xr:uid="{3EC114F0-CACB-4366-9AB9-54B9433C4B0F}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="#N/A"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState ref="H1:H195">
+  <autoFilter ref="A1:G106" xr:uid="{3EC114F0-CACB-4366-9AB9-54B9433C4B0F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H1:H195">
     <sortCondition ref="H187"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/2023秋/黄泽清-马原理分组情况.xlsx
+++ b/2023秋/黄泽清-马原理分组情况.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juncker/助教/2023秋/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\助教\2023秋\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E10D6E6-BBBC-324E-ACCA-C19A9396EC95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC56913-810B-4EF4-BF68-9FF63D9AF1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="500" windowWidth="28420" windowHeight="14920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="1275" windowWidth="15435" windowHeight="19110" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -19,25 +19,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SHEET2!$A$1:$G$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">分组登记!$A$1:$G$106</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="230">
   <si>
     <t>2023-2024秋季学期《马克思主义基本原理》考勤表</t>
   </si>
@@ -726,6 +715,10 @@
   </si>
   <si>
     <t>杜聿锟</t>
+  </si>
+  <si>
+    <t>王建璋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -866,12 +859,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -883,6 +870,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1201,93 +1194,93 @@
   <dimension ref="A1:X112"/>
   <sheetViews>
     <sheetView zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+      <selection activeCell="A5" sqref="A5:A109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="6" width="4.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="6" width="4.625" customWidth="1"/>
     <col min="7" max="24" width="4.5" customWidth="1"/>
-    <col min="25" max="25" width="9.83203125" customWidth="1"/>
+    <col min="25" max="25" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="32.75" customHeight="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:24" ht="32.85" customHeight="1">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-    </row>
-    <row r="2" spans="1:24" ht="16.25" customHeight="1">
-      <c r="A2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-    </row>
-    <row r="3" spans="1:24" ht="16.25" customHeight="1">
-      <c r="A3" s="12" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+    </row>
+    <row r="2" spans="1:24" ht="16.350000000000001" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+    </row>
+    <row r="3" spans="1:24" ht="16.350000000000001" customHeight="1">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="10"/>
       <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1343,13 +1336,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="16.25" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+    <row r="4" spans="1:24" ht="16.350000000000001" customHeight="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
       <c r="G4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1405,7 +1398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="25" customHeight="1">
+    <row r="5" spans="1:24" ht="24.95" customHeight="1">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1418,10 +1411,10 @@
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="12"/>
+      <c r="E5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="10"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1441,7 +1434,7 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" ht="25" customHeight="1">
+    <row r="6" spans="1:24" ht="24.95" customHeight="1">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1454,10 +1447,10 @@
       <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="12"/>
+      <c r="E6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="10"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1477,7 +1470,7 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24" ht="25" customHeight="1">
+    <row r="7" spans="1:24" ht="24.95" customHeight="1">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1490,10 +1483,10 @@
       <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="12"/>
+      <c r="E7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="10"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1513,7 +1506,7 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" ht="25" customHeight="1">
+    <row r="8" spans="1:24" ht="24.95" customHeight="1">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1526,10 +1519,10 @@
       <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="12"/>
+      <c r="E8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="10"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1549,7 +1542,7 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" ht="25" customHeight="1">
+    <row r="9" spans="1:24" ht="24.95" customHeight="1">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -1562,10 +1555,10 @@
       <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="12"/>
+      <c r="E9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="10"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1585,7 +1578,7 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24" ht="25" customHeight="1">
+    <row r="10" spans="1:24" ht="24.95" customHeight="1">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -1598,10 +1591,10 @@
       <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="12"/>
+      <c r="E10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="10"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1621,7 +1614,7 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24" ht="25" customHeight="1">
+    <row r="11" spans="1:24" ht="24.95" customHeight="1">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -1634,10 +1627,10 @@
       <c r="D11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="12"/>
+      <c r="E11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="10"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1657,7 +1650,7 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24" ht="25" customHeight="1">
+    <row r="12" spans="1:24" ht="24.95" customHeight="1">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -1670,10 +1663,10 @@
       <c r="D12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="12"/>
+      <c r="E12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="10"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1693,7 +1686,7 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24" ht="25" customHeight="1">
+    <row r="13" spans="1:24" ht="24.95" customHeight="1">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -1706,10 +1699,10 @@
       <c r="D13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="12"/>
+      <c r="E13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="10"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1729,7 +1722,7 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24" ht="25" customHeight="1">
+    <row r="14" spans="1:24" ht="24.95" customHeight="1">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -1742,10 +1735,10 @@
       <c r="D14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="12"/>
+      <c r="E14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="10"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1765,7 +1758,7 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:24" ht="25" customHeight="1">
+    <row r="15" spans="1:24" ht="24.95" customHeight="1">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -1778,10 +1771,10 @@
       <c r="D15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="12"/>
+      <c r="E15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="10"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1801,7 +1794,7 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:24" ht="25" customHeight="1">
+    <row r="16" spans="1:24" ht="24.95" customHeight="1">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -1814,10 +1807,10 @@
       <c r="D16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="12"/>
+      <c r="E16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="10"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1837,7 +1830,7 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:24" ht="25" customHeight="1">
+    <row r="17" spans="1:24" ht="24.95" customHeight="1">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -1850,10 +1843,10 @@
       <c r="D17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="12"/>
+      <c r="E17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="10"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1873,7 +1866,7 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:24" ht="25" customHeight="1">
+    <row r="18" spans="1:24" ht="24.95" customHeight="1">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -1886,10 +1879,10 @@
       <c r="D18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="12"/>
+      <c r="E18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="10"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1909,7 +1902,7 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="1:24" ht="25" customHeight="1">
+    <row r="19" spans="1:24" ht="24.95" customHeight="1">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -1922,10 +1915,10 @@
       <c r="D19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="12"/>
+      <c r="E19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="10"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1945,7 +1938,7 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="1:24" ht="25" customHeight="1">
+    <row r="20" spans="1:24" ht="24.95" customHeight="1">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -1958,10 +1951,10 @@
       <c r="D20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="12"/>
+      <c r="E20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="10"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1981,7 +1974,7 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="1:24" ht="25" customHeight="1">
+    <row r="21" spans="1:24" ht="24.95" customHeight="1">
       <c r="A21" s="2">
         <v>17</v>
       </c>
@@ -1994,10 +1987,10 @@
       <c r="D21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="12"/>
+      <c r="E21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="10"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -2017,7 +2010,7 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="1:24" ht="25" customHeight="1">
+    <row r="22" spans="1:24" ht="24.95" customHeight="1">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -2030,10 +2023,10 @@
       <c r="D22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="12"/>
+      <c r="E22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="10"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -2053,7 +2046,7 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:24" ht="25" customHeight="1">
+    <row r="23" spans="1:24" ht="24.95" customHeight="1">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -2066,10 +2059,10 @@
       <c r="D23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="12"/>
+      <c r="E23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="10"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -2089,7 +2082,7 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="1:24" ht="25" customHeight="1">
+    <row r="24" spans="1:24" ht="24.95" customHeight="1">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -2102,10 +2095,10 @@
       <c r="D24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="12"/>
+      <c r="E24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="10"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -2125,7 +2118,7 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:24" ht="25" customHeight="1">
+    <row r="25" spans="1:24" ht="24.95" customHeight="1">
       <c r="A25" s="2">
         <v>21</v>
       </c>
@@ -2138,10 +2131,10 @@
       <c r="D25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="12"/>
+      <c r="E25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="10"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -2161,7 +2154,7 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24" ht="25" customHeight="1">
+    <row r="26" spans="1:24" ht="24.95" customHeight="1">
       <c r="A26" s="2">
         <v>22</v>
       </c>
@@ -2174,10 +2167,10 @@
       <c r="D26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="12"/>
+      <c r="E26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="10"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -2197,7 +2190,7 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:24" ht="25" customHeight="1">
+    <row r="27" spans="1:24" ht="24.95" customHeight="1">
       <c r="A27" s="2">
         <v>23</v>
       </c>
@@ -2210,10 +2203,10 @@
       <c r="D27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="12"/>
+      <c r="E27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="10"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -2233,7 +2226,7 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
     </row>
-    <row r="28" spans="1:24" ht="25" customHeight="1">
+    <row r="28" spans="1:24" ht="24.95" customHeight="1">
       <c r="A28" s="2">
         <v>24</v>
       </c>
@@ -2246,10 +2239,10 @@
       <c r="D28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="12"/>
+      <c r="E28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="10"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -2269,7 +2262,7 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
     </row>
-    <row r="29" spans="1:24" ht="25" customHeight="1">
+    <row r="29" spans="1:24" ht="24.95" customHeight="1">
       <c r="A29" s="2">
         <v>25</v>
       </c>
@@ -2282,10 +2275,10 @@
       <c r="D29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="12"/>
+      <c r="E29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="10"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -2305,7 +2298,7 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
     </row>
-    <row r="30" spans="1:24" ht="25" customHeight="1">
+    <row r="30" spans="1:24" ht="24.95" customHeight="1">
       <c r="A30" s="2">
         <v>26</v>
       </c>
@@ -2318,10 +2311,10 @@
       <c r="D30" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="12"/>
+      <c r="E30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="10"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -2341,7 +2334,7 @@
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
     </row>
-    <row r="31" spans="1:24" ht="25" customHeight="1">
+    <row r="31" spans="1:24" ht="24.95" customHeight="1">
       <c r="A31" s="2">
         <v>27</v>
       </c>
@@ -2354,10 +2347,10 @@
       <c r="D31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="12"/>
+      <c r="E31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="10"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -2377,7 +2370,7 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
     </row>
-    <row r="32" spans="1:24" ht="25" customHeight="1">
+    <row r="32" spans="1:24" ht="24.95" customHeight="1">
       <c r="A32" s="2">
         <v>28</v>
       </c>
@@ -2390,10 +2383,10 @@
       <c r="D32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="12"/>
+      <c r="E32" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="10"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -2413,7 +2406,7 @@
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
     </row>
-    <row r="33" spans="1:24" ht="25" customHeight="1">
+    <row r="33" spans="1:24" ht="24.95" customHeight="1">
       <c r="A33" s="2">
         <v>29</v>
       </c>
@@ -2426,10 +2419,10 @@
       <c r="D33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="12"/>
+      <c r="E33" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="10"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2449,7 +2442,7 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
     </row>
-    <row r="34" spans="1:24" ht="25" customHeight="1">
+    <row r="34" spans="1:24" ht="24.95" customHeight="1">
       <c r="A34" s="2">
         <v>30</v>
       </c>
@@ -2462,10 +2455,10 @@
       <c r="D34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="12"/>
+      <c r="E34" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="10"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2485,7 +2478,7 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
     </row>
-    <row r="35" spans="1:24" ht="25" customHeight="1">
+    <row r="35" spans="1:24" ht="24.95" customHeight="1">
       <c r="A35" s="2">
         <v>31</v>
       </c>
@@ -2498,10 +2491,10 @@
       <c r="D35" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="12"/>
+      <c r="E35" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="10"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2521,7 +2514,7 @@
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
     </row>
-    <row r="36" spans="1:24" ht="25" customHeight="1">
+    <row r="36" spans="1:24" ht="24.95" customHeight="1">
       <c r="A36" s="2">
         <v>32</v>
       </c>
@@ -2534,10 +2527,10 @@
       <c r="D36" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="12"/>
+      <c r="E36" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="10"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -2557,7 +2550,7 @@
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
     </row>
-    <row r="37" spans="1:24" ht="25" customHeight="1">
+    <row r="37" spans="1:24" ht="24.95" customHeight="1">
       <c r="A37" s="2">
         <v>33</v>
       </c>
@@ -2570,10 +2563,10 @@
       <c r="D37" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="12"/>
+      <c r="E37" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="10"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -2593,7 +2586,7 @@
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
     </row>
-    <row r="38" spans="1:24" ht="25" customHeight="1">
+    <row r="38" spans="1:24" ht="24.95" customHeight="1">
       <c r="A38" s="2">
         <v>34</v>
       </c>
@@ -2606,10 +2599,10 @@
       <c r="D38" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="12"/>
+      <c r="E38" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="10"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -2629,7 +2622,7 @@
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
     </row>
-    <row r="39" spans="1:24" ht="25" customHeight="1">
+    <row r="39" spans="1:24" ht="24.95" customHeight="1">
       <c r="A39" s="2">
         <v>35</v>
       </c>
@@ -2642,10 +2635,10 @@
       <c r="D39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="12"/>
+      <c r="E39" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="10"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -2665,7 +2658,7 @@
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
     </row>
-    <row r="40" spans="1:24" ht="25" customHeight="1">
+    <row r="40" spans="1:24" ht="24.95" customHeight="1">
       <c r="A40" s="2">
         <v>36</v>
       </c>
@@ -2678,10 +2671,10 @@
       <c r="D40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="12"/>
+      <c r="E40" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="10"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -2701,7 +2694,7 @@
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
     </row>
-    <row r="41" spans="1:24" ht="25" customHeight="1">
+    <row r="41" spans="1:24" ht="24.95" customHeight="1">
       <c r="A41" s="2">
         <v>37</v>
       </c>
@@ -2714,10 +2707,10 @@
       <c r="D41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E41" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="12"/>
+      <c r="E41" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="10"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -2737,7 +2730,7 @@
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
     </row>
-    <row r="42" spans="1:24" ht="25" customHeight="1">
+    <row r="42" spans="1:24" ht="24.95" customHeight="1">
       <c r="A42" s="2">
         <v>38</v>
       </c>
@@ -2750,10 +2743,10 @@
       <c r="D42" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="12"/>
+      <c r="E42" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="10"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -2773,7 +2766,7 @@
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
     </row>
-    <row r="43" spans="1:24" ht="25" customHeight="1">
+    <row r="43" spans="1:24" ht="24.95" customHeight="1">
       <c r="A43" s="2">
         <v>39</v>
       </c>
@@ -2786,10 +2779,10 @@
       <c r="D43" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="12"/>
+      <c r="E43" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="10"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -2809,7 +2802,7 @@
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
     </row>
-    <row r="44" spans="1:24" ht="25" customHeight="1">
+    <row r="44" spans="1:24" ht="24.95" customHeight="1">
       <c r="A44" s="2">
         <v>40</v>
       </c>
@@ -2822,10 +2815,10 @@
       <c r="D44" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="12"/>
+      <c r="E44" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="10"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -2845,7 +2838,7 @@
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
     </row>
-    <row r="45" spans="1:24" ht="25" customHeight="1">
+    <row r="45" spans="1:24" ht="24.95" customHeight="1">
       <c r="A45" s="2">
         <v>41</v>
       </c>
@@ -2858,10 +2851,10 @@
       <c r="D45" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="12"/>
+      <c r="E45" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="10"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -2881,7 +2874,7 @@
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
     </row>
-    <row r="46" spans="1:24" ht="25" customHeight="1">
+    <row r="46" spans="1:24" ht="24.95" customHeight="1">
       <c r="A46" s="2">
         <v>42</v>
       </c>
@@ -2894,10 +2887,10 @@
       <c r="D46" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="12"/>
+      <c r="E46" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="10"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -2917,7 +2910,7 @@
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
     </row>
-    <row r="47" spans="1:24" ht="25" customHeight="1">
+    <row r="47" spans="1:24" ht="24.95" customHeight="1">
       <c r="A47" s="2">
         <v>43</v>
       </c>
@@ -2930,10 +2923,10 @@
       <c r="D47" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="12"/>
+      <c r="E47" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="10"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -2953,7 +2946,7 @@
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
     </row>
-    <row r="48" spans="1:24" ht="25" customHeight="1">
+    <row r="48" spans="1:24" ht="24.95" customHeight="1">
       <c r="A48" s="2">
         <v>44</v>
       </c>
@@ -2966,10 +2959,10 @@
       <c r="D48" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E48" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="12"/>
+      <c r="E48" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="10"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -2989,7 +2982,7 @@
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
     </row>
-    <row r="49" spans="1:24" ht="25" customHeight="1">
+    <row r="49" spans="1:24" ht="24.95" customHeight="1">
       <c r="A49" s="2">
         <v>45</v>
       </c>
@@ -3002,10 +2995,10 @@
       <c r="D49" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="12"/>
+      <c r="E49" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="10"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -3025,7 +3018,7 @@
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
     </row>
-    <row r="50" spans="1:24" ht="25" customHeight="1">
+    <row r="50" spans="1:24" ht="24.95" customHeight="1">
       <c r="A50" s="2">
         <v>46</v>
       </c>
@@ -3038,10 +3031,10 @@
       <c r="D50" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E50" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="12"/>
+      <c r="E50" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="10"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -3061,7 +3054,7 @@
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
     </row>
-    <row r="51" spans="1:24" ht="25" customHeight="1">
+    <row r="51" spans="1:24" ht="24.95" customHeight="1">
       <c r="A51" s="2">
         <v>47</v>
       </c>
@@ -3074,10 +3067,10 @@
       <c r="D51" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E51" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="12"/>
+      <c r="E51" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="10"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -3097,7 +3090,7 @@
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
     </row>
-    <row r="52" spans="1:24" ht="25" customHeight="1">
+    <row r="52" spans="1:24" ht="24.95" customHeight="1">
       <c r="A52" s="2">
         <v>48</v>
       </c>
@@ -3110,10 +3103,10 @@
       <c r="D52" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E52" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="12"/>
+      <c r="E52" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="10"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -3133,7 +3126,7 @@
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
     </row>
-    <row r="53" spans="1:24" ht="25" customHeight="1">
+    <row r="53" spans="1:24" ht="24.95" customHeight="1">
       <c r="A53" s="2">
         <v>49</v>
       </c>
@@ -3146,10 +3139,10 @@
       <c r="D53" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" s="12"/>
+      <c r="E53" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="10"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -3169,7 +3162,7 @@
       <c r="W53" s="1"/>
       <c r="X53" s="1"/>
     </row>
-    <row r="54" spans="1:24" ht="25" customHeight="1">
+    <row r="54" spans="1:24" ht="24.95" customHeight="1">
       <c r="A54" s="2">
         <v>50</v>
       </c>
@@ -3182,10 +3175,10 @@
       <c r="D54" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" s="12"/>
+      <c r="E54" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="10"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -3205,7 +3198,7 @@
       <c r="W54" s="1"/>
       <c r="X54" s="1"/>
     </row>
-    <row r="55" spans="1:24" ht="25" customHeight="1">
+    <row r="55" spans="1:24" ht="24.95" customHeight="1">
       <c r="A55" s="2">
         <v>51</v>
       </c>
@@ -3218,10 +3211,10 @@
       <c r="D55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E55" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="12"/>
+      <c r="E55" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="10"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -3241,7 +3234,7 @@
       <c r="W55" s="1"/>
       <c r="X55" s="1"/>
     </row>
-    <row r="56" spans="1:24" ht="25" customHeight="1">
+    <row r="56" spans="1:24" ht="24.95" customHeight="1">
       <c r="A56" s="2">
         <v>52</v>
       </c>
@@ -3254,10 +3247,10 @@
       <c r="D56" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E56" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="12"/>
+      <c r="E56" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="10"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -3277,7 +3270,7 @@
       <c r="W56" s="1"/>
       <c r="X56" s="1"/>
     </row>
-    <row r="57" spans="1:24" ht="25" customHeight="1">
+    <row r="57" spans="1:24" ht="24.95" customHeight="1">
       <c r="A57" s="2">
         <v>53</v>
       </c>
@@ -3290,10 +3283,10 @@
       <c r="D57" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E57" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="12"/>
+      <c r="E57" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="10"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -3313,7 +3306,7 @@
       <c r="W57" s="1"/>
       <c r="X57" s="1"/>
     </row>
-    <row r="58" spans="1:24" ht="25" customHeight="1">
+    <row r="58" spans="1:24" ht="24.95" customHeight="1">
       <c r="A58" s="2">
         <v>54</v>
       </c>
@@ -3326,10 +3319,10 @@
       <c r="D58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="12"/>
+      <c r="E58" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="10"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -3349,7 +3342,7 @@
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
     </row>
-    <row r="59" spans="1:24" ht="25" customHeight="1">
+    <row r="59" spans="1:24" ht="24.95" customHeight="1">
       <c r="A59" s="2">
         <v>55</v>
       </c>
@@ -3362,10 +3355,10 @@
       <c r="D59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="12"/>
+      <c r="E59" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="10"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -3385,7 +3378,7 @@
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
     </row>
-    <row r="60" spans="1:24" ht="25" customHeight="1">
+    <row r="60" spans="1:24" ht="24.95" customHeight="1">
       <c r="A60" s="2">
         <v>56</v>
       </c>
@@ -3398,10 +3391,10 @@
       <c r="D60" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E60" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="12"/>
+      <c r="E60" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="10"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -3421,7 +3414,7 @@
       <c r="W60" s="1"/>
       <c r="X60" s="1"/>
     </row>
-    <row r="61" spans="1:24" ht="25" customHeight="1">
+    <row r="61" spans="1:24" ht="24.95" customHeight="1">
       <c r="A61" s="2">
         <v>57</v>
       </c>
@@ -3434,10 +3427,10 @@
       <c r="D61" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E61" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="12"/>
+      <c r="E61" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="10"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -3457,7 +3450,7 @@
       <c r="W61" s="1"/>
       <c r="X61" s="1"/>
     </row>
-    <row r="62" spans="1:24" ht="25" customHeight="1">
+    <row r="62" spans="1:24" ht="24.95" customHeight="1">
       <c r="A62" s="2">
         <v>58</v>
       </c>
@@ -3470,10 +3463,10 @@
       <c r="D62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="12"/>
+      <c r="E62" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="10"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -3493,7 +3486,7 @@
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
     </row>
-    <row r="63" spans="1:24" ht="25" customHeight="1">
+    <row r="63" spans="1:24" ht="24.95" customHeight="1">
       <c r="A63" s="2">
         <v>59</v>
       </c>
@@ -3506,10 +3499,10 @@
       <c r="D63" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E63" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="12"/>
+      <c r="E63" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="10"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -3529,7 +3522,7 @@
       <c r="W63" s="1"/>
       <c r="X63" s="1"/>
     </row>
-    <row r="64" spans="1:24" ht="25" customHeight="1">
+    <row r="64" spans="1:24" ht="24.95" customHeight="1">
       <c r="A64" s="2">
         <v>60</v>
       </c>
@@ -3542,10 +3535,10 @@
       <c r="D64" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="12"/>
+      <c r="E64" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="10"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -3565,7 +3558,7 @@
       <c r="W64" s="1"/>
       <c r="X64" s="1"/>
     </row>
-    <row r="65" spans="1:24" ht="25" customHeight="1">
+    <row r="65" spans="1:24" ht="24.95" customHeight="1">
       <c r="A65" s="2">
         <v>61</v>
       </c>
@@ -3578,10 +3571,10 @@
       <c r="D65" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E65" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" s="12"/>
+      <c r="E65" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="10"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -3601,7 +3594,7 @@
       <c r="W65" s="1"/>
       <c r="X65" s="1"/>
     </row>
-    <row r="66" spans="1:24" ht="25" customHeight="1">
+    <row r="66" spans="1:24" ht="24.95" customHeight="1">
       <c r="A66" s="2">
         <v>62</v>
       </c>
@@ -3614,10 +3607,10 @@
       <c r="D66" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E66" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" s="12"/>
+      <c r="E66" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="10"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -3637,7 +3630,7 @@
       <c r="W66" s="1"/>
       <c r="X66" s="1"/>
     </row>
-    <row r="67" spans="1:24" ht="25" customHeight="1">
+    <row r="67" spans="1:24" ht="24.95" customHeight="1">
       <c r="A67" s="2">
         <v>63</v>
       </c>
@@ -3650,10 +3643,10 @@
       <c r="D67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E67" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67" s="12"/>
+      <c r="E67" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="10"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -3673,7 +3666,7 @@
       <c r="W67" s="1"/>
       <c r="X67" s="1"/>
     </row>
-    <row r="68" spans="1:24" ht="25" customHeight="1">
+    <row r="68" spans="1:24" ht="24.95" customHeight="1">
       <c r="A68" s="2">
         <v>64</v>
       </c>
@@ -3686,10 +3679,10 @@
       <c r="D68" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E68" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" s="12"/>
+      <c r="E68" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="10"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -3709,7 +3702,7 @@
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
     </row>
-    <row r="69" spans="1:24" ht="25" customHeight="1">
+    <row r="69" spans="1:24" ht="24.95" customHeight="1">
       <c r="A69" s="2">
         <v>65</v>
       </c>
@@ -3722,10 +3715,10 @@
       <c r="D69" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E69" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" s="12"/>
+      <c r="E69" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="10"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -3745,7 +3738,7 @@
       <c r="W69" s="1"/>
       <c r="X69" s="1"/>
     </row>
-    <row r="70" spans="1:24" ht="25" customHeight="1">
+    <row r="70" spans="1:24" ht="24.95" customHeight="1">
       <c r="A70" s="2">
         <v>66</v>
       </c>
@@ -3758,10 +3751,10 @@
       <c r="D70" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E70" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" s="12"/>
+      <c r="E70" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="10"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -3781,7 +3774,7 @@
       <c r="W70" s="1"/>
       <c r="X70" s="1"/>
     </row>
-    <row r="71" spans="1:24" ht="25" customHeight="1">
+    <row r="71" spans="1:24" ht="24.95" customHeight="1">
       <c r="A71" s="2">
         <v>67</v>
       </c>
@@ -3794,10 +3787,10 @@
       <c r="D71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E71" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" s="12"/>
+      <c r="E71" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="10"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -3817,7 +3810,7 @@
       <c r="W71" s="1"/>
       <c r="X71" s="1"/>
     </row>
-    <row r="72" spans="1:24" ht="25" customHeight="1">
+    <row r="72" spans="1:24" ht="24.95" customHeight="1">
       <c r="A72" s="2">
         <v>68</v>
       </c>
@@ -3830,10 +3823,10 @@
       <c r="D72" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E72" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="12"/>
+      <c r="E72" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="10"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -3853,7 +3846,7 @@
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
     </row>
-    <row r="73" spans="1:24" ht="25" customHeight="1">
+    <row r="73" spans="1:24" ht="24.95" customHeight="1">
       <c r="A73" s="2">
         <v>69</v>
       </c>
@@ -3866,10 +3859,10 @@
       <c r="D73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E73" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="12"/>
+      <c r="E73" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="10"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -3889,7 +3882,7 @@
       <c r="W73" s="1"/>
       <c r="X73" s="1"/>
     </row>
-    <row r="74" spans="1:24" ht="25" customHeight="1">
+    <row r="74" spans="1:24" ht="24.95" customHeight="1">
       <c r="A74" s="2">
         <v>70</v>
       </c>
@@ -3902,10 +3895,10 @@
       <c r="D74" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E74" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" s="12"/>
+      <c r="E74" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="10"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -3925,7 +3918,7 @@
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
     </row>
-    <row r="75" spans="1:24" ht="25" customHeight="1">
+    <row r="75" spans="1:24" ht="24.95" customHeight="1">
       <c r="A75" s="2">
         <v>71</v>
       </c>
@@ -3938,10 +3931,10 @@
       <c r="D75" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E75" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F75" s="12"/>
+      <c r="E75" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="10"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -3961,7 +3954,7 @@
       <c r="W75" s="1"/>
       <c r="X75" s="1"/>
     </row>
-    <row r="76" spans="1:24" ht="25" customHeight="1">
+    <row r="76" spans="1:24" ht="24.95" customHeight="1">
       <c r="A76" s="2">
         <v>72</v>
       </c>
@@ -3974,10 +3967,10 @@
       <c r="D76" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E76" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" s="12"/>
+      <c r="E76" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="10"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -3997,7 +3990,7 @@
       <c r="W76" s="1"/>
       <c r="X76" s="1"/>
     </row>
-    <row r="77" spans="1:24" ht="25" customHeight="1">
+    <row r="77" spans="1:24" ht="24.95" customHeight="1">
       <c r="A77" s="2">
         <v>73</v>
       </c>
@@ -4010,10 +4003,10 @@
       <c r="D77" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E77" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" s="12"/>
+      <c r="E77" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="10"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -4033,7 +4026,7 @@
       <c r="W77" s="1"/>
       <c r="X77" s="1"/>
     </row>
-    <row r="78" spans="1:24" ht="25" customHeight="1">
+    <row r="78" spans="1:24" ht="24.95" customHeight="1">
       <c r="A78" s="2">
         <v>74</v>
       </c>
@@ -4046,10 +4039,10 @@
       <c r="D78" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E78" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" s="12"/>
+      <c r="E78" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="10"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -4069,7 +4062,7 @@
       <c r="W78" s="1"/>
       <c r="X78" s="1"/>
     </row>
-    <row r="79" spans="1:24" ht="25" customHeight="1">
+    <row r="79" spans="1:24" ht="24.95" customHeight="1">
       <c r="A79" s="2">
         <v>75</v>
       </c>
@@ -4082,10 +4075,10 @@
       <c r="D79" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E79" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79" s="12"/>
+      <c r="E79" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="10"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -4105,7 +4098,7 @@
       <c r="W79" s="1"/>
       <c r="X79" s="1"/>
     </row>
-    <row r="80" spans="1:24" ht="25" customHeight="1">
+    <row r="80" spans="1:24" ht="24.95" customHeight="1">
       <c r="A80" s="2">
         <v>76</v>
       </c>
@@ -4118,10 +4111,10 @@
       <c r="D80" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E80" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F80" s="12"/>
+      <c r="E80" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" s="10"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -4141,7 +4134,7 @@
       <c r="W80" s="1"/>
       <c r="X80" s="1"/>
     </row>
-    <row r="81" spans="1:24" ht="25" customHeight="1">
+    <row r="81" spans="1:24" ht="24.95" customHeight="1">
       <c r="A81" s="2">
         <v>77</v>
       </c>
@@ -4154,10 +4147,10 @@
       <c r="D81" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E81" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81" s="12"/>
+      <c r="E81" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" s="10"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -4177,7 +4170,7 @@
       <c r="W81" s="1"/>
       <c r="X81" s="1"/>
     </row>
-    <row r="82" spans="1:24" ht="25" customHeight="1">
+    <row r="82" spans="1:24" ht="24.95" customHeight="1">
       <c r="A82" s="2">
         <v>78</v>
       </c>
@@ -4190,10 +4183,10 @@
       <c r="D82" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E82" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F82" s="12"/>
+      <c r="E82" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" s="10"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -4213,7 +4206,7 @@
       <c r="W82" s="1"/>
       <c r="X82" s="1"/>
     </row>
-    <row r="83" spans="1:24" ht="25" customHeight="1">
+    <row r="83" spans="1:24" ht="24.95" customHeight="1">
       <c r="A83" s="2">
         <v>79</v>
       </c>
@@ -4226,10 +4219,10 @@
       <c r="D83" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E83" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F83" s="12"/>
+      <c r="E83" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" s="10"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -4249,7 +4242,7 @@
       <c r="W83" s="1"/>
       <c r="X83" s="1"/>
     </row>
-    <row r="84" spans="1:24" ht="25" customHeight="1">
+    <row r="84" spans="1:24" ht="24.95" customHeight="1">
       <c r="A84" s="2">
         <v>80</v>
       </c>
@@ -4262,10 +4255,10 @@
       <c r="D84" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E84" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F84" s="12"/>
+      <c r="E84" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="10"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -4285,7 +4278,7 @@
       <c r="W84" s="1"/>
       <c r="X84" s="1"/>
     </row>
-    <row r="85" spans="1:24" ht="25" customHeight="1">
+    <row r="85" spans="1:24" ht="24.95" customHeight="1">
       <c r="A85" s="2">
         <v>81</v>
       </c>
@@ -4298,10 +4291,10 @@
       <c r="D85" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E85" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F85" s="12"/>
+      <c r="E85" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" s="10"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -4321,7 +4314,7 @@
       <c r="W85" s="1"/>
       <c r="X85" s="1"/>
     </row>
-    <row r="86" spans="1:24" ht="25" customHeight="1">
+    <row r="86" spans="1:24" ht="24.95" customHeight="1">
       <c r="A86" s="2">
         <v>82</v>
       </c>
@@ -4334,10 +4327,10 @@
       <c r="D86" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E86" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F86" s="12"/>
+      <c r="E86" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" s="10"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -4357,7 +4350,7 @@
       <c r="W86" s="1"/>
       <c r="X86" s="1"/>
     </row>
-    <row r="87" spans="1:24" ht="38" customHeight="1">
+    <row r="87" spans="1:24" ht="38.1" customHeight="1">
       <c r="A87" s="2">
         <v>83</v>
       </c>
@@ -4370,10 +4363,10 @@
       <c r="D87" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E87" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F87" s="12"/>
+      <c r="E87" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87" s="10"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -4393,7 +4386,7 @@
       <c r="W87" s="1"/>
       <c r="X87" s="1"/>
     </row>
-    <row r="88" spans="1:24" ht="25" customHeight="1">
+    <row r="88" spans="1:24" ht="24.95" customHeight="1">
       <c r="A88" s="2">
         <v>84</v>
       </c>
@@ -4406,10 +4399,10 @@
       <c r="D88" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E88" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F88" s="12"/>
+      <c r="E88" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88" s="10"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -4429,7 +4422,7 @@
       <c r="W88" s="1"/>
       <c r="X88" s="1"/>
     </row>
-    <row r="89" spans="1:24" ht="38" customHeight="1">
+    <row r="89" spans="1:24" ht="38.1" customHeight="1">
       <c r="A89" s="2">
         <v>85</v>
       </c>
@@ -4442,10 +4435,10 @@
       <c r="D89" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E89" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F89" s="12"/>
+      <c r="E89" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" s="10"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -4465,7 +4458,7 @@
       <c r="W89" s="1"/>
       <c r="X89" s="1"/>
     </row>
-    <row r="90" spans="1:24" ht="25" customHeight="1">
+    <row r="90" spans="1:24" ht="24.95" customHeight="1">
       <c r="A90" s="2">
         <v>86</v>
       </c>
@@ -4478,10 +4471,10 @@
       <c r="D90" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E90" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F90" s="12"/>
+      <c r="E90" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" s="10"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -4501,7 +4494,7 @@
       <c r="W90" s="1"/>
       <c r="X90" s="1"/>
     </row>
-    <row r="91" spans="1:24" ht="25" customHeight="1">
+    <row r="91" spans="1:24" ht="24.95" customHeight="1">
       <c r="A91" s="2">
         <v>87</v>
       </c>
@@ -4514,10 +4507,10 @@
       <c r="D91" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E91" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F91" s="12"/>
+      <c r="E91" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" s="10"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -4537,7 +4530,7 @@
       <c r="W91" s="1"/>
       <c r="X91" s="1"/>
     </row>
-    <row r="92" spans="1:24" ht="25" customHeight="1">
+    <row r="92" spans="1:24" ht="24.95" customHeight="1">
       <c r="A92" s="2">
         <v>88</v>
       </c>
@@ -4550,10 +4543,10 @@
       <c r="D92" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E92" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F92" s="12"/>
+      <c r="E92" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" s="10"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -4573,7 +4566,7 @@
       <c r="W92" s="1"/>
       <c r="X92" s="1"/>
     </row>
-    <row r="93" spans="1:24" ht="25" customHeight="1">
+    <row r="93" spans="1:24" ht="24.95" customHeight="1">
       <c r="A93" s="2">
         <v>89</v>
       </c>
@@ -4586,10 +4579,10 @@
       <c r="D93" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E93" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F93" s="12"/>
+      <c r="E93" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" s="10"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -4609,7 +4602,7 @@
       <c r="W93" s="1"/>
       <c r="X93" s="1"/>
     </row>
-    <row r="94" spans="1:24" ht="25" customHeight="1">
+    <row r="94" spans="1:24" ht="24.95" customHeight="1">
       <c r="A94" s="2">
         <v>90</v>
       </c>
@@ -4622,10 +4615,10 @@
       <c r="D94" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E94" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F94" s="12"/>
+      <c r="E94" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" s="10"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -4645,7 +4638,7 @@
       <c r="W94" s="1"/>
       <c r="X94" s="1"/>
     </row>
-    <row r="95" spans="1:24" ht="25" customHeight="1">
+    <row r="95" spans="1:24" ht="24.95" customHeight="1">
       <c r="A95" s="2">
         <v>91</v>
       </c>
@@ -4658,10 +4651,10 @@
       <c r="D95" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E95" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F95" s="12"/>
+      <c r="E95" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95" s="10"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -4681,7 +4674,7 @@
       <c r="W95" s="1"/>
       <c r="X95" s="1"/>
     </row>
-    <row r="96" spans="1:24" ht="25" customHeight="1">
+    <row r="96" spans="1:24" ht="24.95" customHeight="1">
       <c r="A96" s="2">
         <v>92</v>
       </c>
@@ -4694,10 +4687,10 @@
       <c r="D96" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E96" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F96" s="12"/>
+      <c r="E96" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F96" s="10"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -4717,7 +4710,7 @@
       <c r="W96" s="1"/>
       <c r="X96" s="1"/>
     </row>
-    <row r="97" spans="1:24" ht="25" customHeight="1">
+    <row r="97" spans="1:24" ht="24.95" customHeight="1">
       <c r="A97" s="2">
         <v>93</v>
       </c>
@@ -4730,10 +4723,10 @@
       <c r="D97" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E97" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F97" s="12"/>
+      <c r="E97" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" s="10"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -4753,7 +4746,7 @@
       <c r="W97" s="1"/>
       <c r="X97" s="1"/>
     </row>
-    <row r="98" spans="1:24" ht="25" customHeight="1">
+    <row r="98" spans="1:24" ht="24.95" customHeight="1">
       <c r="A98" s="2">
         <v>94</v>
       </c>
@@ -4766,10 +4759,10 @@
       <c r="D98" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E98" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F98" s="12"/>
+      <c r="E98" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" s="10"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -4789,7 +4782,7 @@
       <c r="W98" s="1"/>
       <c r="X98" s="1"/>
     </row>
-    <row r="99" spans="1:24" ht="25" customHeight="1">
+    <row r="99" spans="1:24" ht="24.95" customHeight="1">
       <c r="A99" s="2">
         <v>95</v>
       </c>
@@ -4802,10 +4795,10 @@
       <c r="D99" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E99" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F99" s="12"/>
+      <c r="E99" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99" s="10"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -4825,7 +4818,7 @@
       <c r="W99" s="1"/>
       <c r="X99" s="1"/>
     </row>
-    <row r="100" spans="1:24" ht="38" customHeight="1">
+    <row r="100" spans="1:24" ht="38.1" customHeight="1">
       <c r="A100" s="2">
         <v>96</v>
       </c>
@@ -4838,10 +4831,10 @@
       <c r="D100" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E100" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F100" s="12"/>
+      <c r="E100" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" s="10"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
@@ -4861,7 +4854,7 @@
       <c r="W100" s="1"/>
       <c r="X100" s="1"/>
     </row>
-    <row r="101" spans="1:24" ht="25" customHeight="1">
+    <row r="101" spans="1:24" ht="24.95" customHeight="1">
       <c r="A101" s="2">
         <v>97</v>
       </c>
@@ -4874,10 +4867,10 @@
       <c r="D101" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E101" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F101" s="12"/>
+      <c r="E101" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" s="10"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
@@ -4897,7 +4890,7 @@
       <c r="W101" s="1"/>
       <c r="X101" s="1"/>
     </row>
-    <row r="102" spans="1:24" ht="25" customHeight="1">
+    <row r="102" spans="1:24" ht="24.95" customHeight="1">
       <c r="A102" s="2">
         <v>98</v>
       </c>
@@ -4910,10 +4903,10 @@
       <c r="D102" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E102" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F102" s="12"/>
+      <c r="E102" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" s="10"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
@@ -4933,7 +4926,7 @@
       <c r="W102" s="1"/>
       <c r="X102" s="1"/>
     </row>
-    <row r="103" spans="1:24" ht="25" customHeight="1">
+    <row r="103" spans="1:24" ht="24.95" customHeight="1">
       <c r="A103" s="2">
         <v>99</v>
       </c>
@@ -4946,10 +4939,10 @@
       <c r="D103" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E103" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F103" s="12"/>
+      <c r="E103" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F103" s="10"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
@@ -4969,7 +4962,7 @@
       <c r="W103" s="1"/>
       <c r="X103" s="1"/>
     </row>
-    <row r="104" spans="1:24" ht="25" customHeight="1">
+    <row r="104" spans="1:24" ht="24.95" customHeight="1">
       <c r="A104" s="2">
         <v>100</v>
       </c>
@@ -4982,10 +4975,10 @@
       <c r="D104" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E104" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F104" s="12"/>
+      <c r="E104" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104" s="10"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
@@ -5005,7 +4998,7 @@
       <c r="W104" s="1"/>
       <c r="X104" s="1"/>
     </row>
-    <row r="105" spans="1:24" ht="25" customHeight="1">
+    <row r="105" spans="1:24" ht="24.95" customHeight="1">
       <c r="A105" s="2">
         <v>101</v>
       </c>
@@ -5018,10 +5011,10 @@
       <c r="D105" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E105" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F105" s="12"/>
+      <c r="E105" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" s="10"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
@@ -5041,7 +5034,7 @@
       <c r="W105" s="1"/>
       <c r="X105" s="1"/>
     </row>
-    <row r="106" spans="1:24" ht="16.25" customHeight="1">
+    <row r="106" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A106" s="2">
         <v>102</v>
       </c>
@@ -5052,10 +5045,10 @@
         <v>217</v>
       </c>
       <c r="D106" s="2"/>
-      <c r="E106" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F106" s="12"/>
+      <c r="E106" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106" s="10"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
@@ -5075,7 +5068,7 @@
       <c r="W106" s="1"/>
       <c r="X106" s="1"/>
     </row>
-    <row r="107" spans="1:24" ht="16.25" customHeight="1">
+    <row r="107" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A107" s="2">
         <v>103</v>
       </c>
@@ -5086,10 +5079,10 @@
         <v>219</v>
       </c>
       <c r="D107" s="2"/>
-      <c r="E107" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F107" s="12"/>
+      <c r="E107" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" s="10"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
@@ -5109,7 +5102,7 @@
       <c r="W107" s="1"/>
       <c r="X107" s="1"/>
     </row>
-    <row r="108" spans="1:24" ht="25" customHeight="1">
+    <row r="108" spans="1:24" ht="24.95" customHeight="1">
       <c r="A108" s="2">
         <v>104</v>
       </c>
@@ -5122,10 +5115,10 @@
       <c r="D108" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E108" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108" s="12"/>
+      <c r="E108" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108" s="10"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
@@ -5145,7 +5138,7 @@
       <c r="W108" s="1"/>
       <c r="X108" s="1"/>
     </row>
-    <row r="109" spans="1:24" ht="16.25" customHeight="1">
+    <row r="109" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A109" s="2">
         <v>105</v>
       </c>
@@ -5156,10 +5149,10 @@
         <v>223</v>
       </c>
       <c r="D109" s="2"/>
-      <c r="E109" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F109" s="12"/>
+      <c r="E109" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" s="10"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
@@ -5179,35 +5172,137 @@
       <c r="W109" s="1"/>
       <c r="X109" s="1"/>
     </row>
-    <row r="110" spans="1:24" ht="16.25" customHeight="1">
+    <row r="110" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="D110" s="5"/>
       <c r="R110" s="6"/>
     </row>
-    <row r="111" spans="1:24" ht="16.25" customHeight="1">
+    <row r="111" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="D111" s="5"/>
       <c r="Q111" s="6"/>
     </row>
-    <row r="112" spans="1:24" ht="25.75" customHeight="1">
+    <row r="112" spans="1:24" ht="25.7" customHeight="1">
       <c r="D112" s="5"/>
-      <c r="M112" s="10" t="s">
+      <c r="M112" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="N112" s="10"/>
+      <c r="N112" s="14"/>
       <c r="O112" s="7"/>
       <c r="P112" s="7"/>
       <c r="Q112" s="6"/>
-      <c r="R112" s="11" t="s">
+      <c r="R112" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="S112" s="11"/>
-      <c r="T112" s="11"/>
-      <c r="U112" s="11"/>
+      <c r="S112" s="15"/>
+      <c r="T112" s="15"/>
+      <c r="U112" s="15"/>
       <c r="V112" s="7"/>
       <c r="W112" s="7"/>
       <c r="X112" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="114">
+    <mergeCell ref="M112:N112"/>
+    <mergeCell ref="R112:U112"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
@@ -5220,108 +5315,6 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:F4"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="M112:N112"/>
-    <mergeCell ref="R112:U112"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="E104:F104"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.39500001072883606" right="0.39500001072883606" top="0.26899999380111694" bottom="0.26899999380111694" header="0" footer="0"/>
@@ -5334,13 +5327,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48541F51-EBDC-504F-9B0C-8B3C84FA32B1}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="117" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -5365,7 +5359,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" hidden="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5384,12 +5378,11 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" t="e">
-        <f t="shared" ref="G2:G65" si="0">VLOOKUP(C2,H:H,1,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" hidden="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5412,7 +5405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" hidden="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5431,12 +5424,11 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" hidden="1">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5455,12 +5447,11 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" hidden="1">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5479,12 +5470,11 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" hidden="1">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5503,12 +5493,11 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5531,7 +5520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" hidden="1">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5554,7 +5543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" hidden="1">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5573,12 +5562,11 @@
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" hidden="1">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5597,12 +5585,11 @@
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="G11" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" hidden="1">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5621,12 +5608,11 @@
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" hidden="1">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5649,7 +5635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" hidden="1">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5668,12 +5654,11 @@
       <c r="F14">
         <v>1</v>
       </c>
-      <c r="G14" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" hidden="1">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5692,12 +5677,11 @@
       <c r="F15">
         <v>1</v>
       </c>
-      <c r="G15" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" hidden="1">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5720,7 +5704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" hidden="1">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5739,12 +5723,11 @@
       <c r="F17">
         <v>1</v>
       </c>
-      <c r="G17" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" hidden="1">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5763,12 +5746,11 @@
       <c r="F18">
         <v>1</v>
       </c>
-      <c r="G18" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5787,12 +5769,11 @@
       <c r="F19">
         <v>1</v>
       </c>
-      <c r="G19" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" hidden="1">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5815,7 +5796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" hidden="1">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5834,12 +5815,11 @@
       <c r="F21">
         <v>1</v>
       </c>
-      <c r="G21" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="G21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" hidden="1">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5858,9 +5838,8 @@
       <c r="F22">
         <v>1</v>
       </c>
-      <c r="G22" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+      <c r="G22">
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -5883,11 +5862,11 @@
         <v>1</v>
       </c>
       <c r="G23" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G2:G65" si="0">VLOOKUP(C23,H:H,1,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" hidden="1">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5910,7 +5889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" hidden="1">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5929,12 +5908,11 @@
       <c r="F25">
         <v>1</v>
       </c>
-      <c r="G25" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="G25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" hidden="1">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5953,12 +5931,11 @@
       <c r="F26">
         <v>1</v>
       </c>
-      <c r="G26" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="G26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" hidden="1">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5981,7 +5958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" hidden="1">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6000,12 +5977,11 @@
       <c r="F28">
         <v>1</v>
       </c>
-      <c r="G28" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="G28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" hidden="1">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6024,12 +6000,11 @@
       <c r="F29">
         <v>1</v>
       </c>
-      <c r="G29" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="G29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" hidden="1">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6048,12 +6023,11 @@
       <c r="F30">
         <v>1</v>
       </c>
-      <c r="G30" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="G30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" hidden="1">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6072,12 +6046,11 @@
       <c r="F31">
         <v>1</v>
       </c>
-      <c r="G31" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="G31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" hidden="1">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6096,12 +6069,11 @@
       <c r="F32">
         <v>1</v>
       </c>
-      <c r="G32" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="G32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" hidden="1">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6124,7 +6096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" hidden="1">
       <c r="A34">
         <v>33</v>
       </c>
@@ -6143,12 +6115,11 @@
       <c r="F34">
         <v>1</v>
       </c>
-      <c r="G34" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="G34">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" hidden="1">
       <c r="A35">
         <v>34</v>
       </c>
@@ -6171,7 +6142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" hidden="1">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6190,12 +6161,11 @@
       <c r="F36">
         <v>1</v>
       </c>
-      <c r="G36" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="G36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" hidden="1">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6214,12 +6184,11 @@
       <c r="F37">
         <v>1</v>
       </c>
-      <c r="G37" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="G37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" hidden="1">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6238,12 +6207,11 @@
       <c r="F38">
         <v>1</v>
       </c>
-      <c r="G38" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="G38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" hidden="1">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6266,7 +6234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" hidden="1">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6285,12 +6253,11 @@
       <c r="F40">
         <v>1</v>
       </c>
-      <c r="G40" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="G40">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" hidden="1">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6337,7 +6304,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" hidden="1">
       <c r="A43">
         <v>42</v>
       </c>
@@ -6360,7 +6327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" hidden="1">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6379,12 +6346,11 @@
       <c r="F44">
         <v>1</v>
       </c>
-      <c r="G44" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="G44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" hidden="1">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6403,12 +6369,11 @@
       <c r="F45">
         <v>1</v>
       </c>
-      <c r="G45" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="G45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" hidden="1">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6431,7 +6396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" hidden="1">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6450,12 +6415,11 @@
       <c r="F47">
         <v>1</v>
       </c>
-      <c r="G47" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="G47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" hidden="1">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6474,12 +6438,11 @@
       <c r="F48">
         <v>1</v>
       </c>
-      <c r="G48" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="G48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" hidden="1">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6498,12 +6461,11 @@
       <c r="F49">
         <v>1</v>
       </c>
-      <c r="G49" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="G49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" hidden="1">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6522,12 +6484,11 @@
       <c r="F50">
         <v>1</v>
       </c>
-      <c r="G50" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="G50">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" hidden="1">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6546,12 +6507,11 @@
       <c r="F51">
         <v>1</v>
       </c>
-      <c r="G51" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="G51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" hidden="1">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6570,12 +6530,11 @@
       <c r="F52">
         <v>1</v>
       </c>
-      <c r="G52" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="G52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" hidden="1">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6598,7 +6557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" hidden="1">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6617,12 +6576,11 @@
       <c r="F54">
         <v>1</v>
       </c>
-      <c r="G54" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="G54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" hidden="1">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6641,12 +6599,11 @@
       <c r="F55">
         <v>1</v>
       </c>
-      <c r="G55" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="G55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" hidden="1">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6665,12 +6622,11 @@
       <c r="F56">
         <v>1</v>
       </c>
-      <c r="G56" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="G56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" hidden="1">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6693,7 +6649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" hidden="1">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6712,12 +6668,11 @@
       <c r="F58">
         <v>1</v>
       </c>
-      <c r="G58" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="G58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" hidden="1">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6736,12 +6691,11 @@
       <c r="F59">
         <v>1</v>
       </c>
-      <c r="G59" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="G59">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" hidden="1">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6760,12 +6714,11 @@
       <c r="F60">
         <v>1</v>
       </c>
-      <c r="G60" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="G60">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" hidden="1">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6788,7 +6741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" hidden="1">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6807,12 +6760,11 @@
       <c r="F62">
         <v>1</v>
       </c>
-      <c r="G62" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="G62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" hidden="1">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6835,7 +6787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" hidden="1">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6851,12 +6803,11 @@
       <c r="E64" t="s">
         <v>12</v>
       </c>
-      <c r="G64" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="G64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" hidden="1">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6875,12 +6826,11 @@
       <c r="F65">
         <v>1</v>
       </c>
-      <c r="G65" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="G65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" hidden="1">
       <c r="A66">
         <v>65</v>
       </c>
@@ -6903,7 +6853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" hidden="1">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6922,12 +6872,11 @@
       <c r="F67">
         <v>1</v>
       </c>
-      <c r="G67" t="e">
-        <f t="shared" ref="G66:G106" si="1">VLOOKUP(C67,H:H,1,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="G67">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" hidden="1">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6946,12 +6895,11 @@
       <c r="F68">
         <v>1</v>
       </c>
-      <c r="G68" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="G68">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" hidden="1">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6970,12 +6918,11 @@
       <c r="F69">
         <v>1</v>
       </c>
-      <c r="G69" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="G69">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" hidden="1">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6994,12 +6941,11 @@
       <c r="F70">
         <v>1</v>
       </c>
-      <c r="G70" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="G70">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" hidden="1">
       <c r="A71">
         <v>70</v>
       </c>
@@ -7018,12 +6964,11 @@
       <c r="F71">
         <v>1</v>
       </c>
-      <c r="G71" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="G71">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" hidden="1">
       <c r="A72">
         <v>71</v>
       </c>
@@ -7046,7 +6991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" hidden="1">
       <c r="A73">
         <v>72</v>
       </c>
@@ -7069,7 +7014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" hidden="1">
       <c r="A74">
         <v>73</v>
       </c>
@@ -7088,12 +7033,11 @@
       <c r="F74">
         <v>1</v>
       </c>
-      <c r="G74" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="G74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" hidden="1">
       <c r="A75">
         <v>74</v>
       </c>
@@ -7112,12 +7056,11 @@
       <c r="F75">
         <v>1</v>
       </c>
-      <c r="G75" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="G75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" hidden="1">
       <c r="A76">
         <v>75</v>
       </c>
@@ -7140,7 +7083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" hidden="1">
       <c r="A77">
         <v>76</v>
       </c>
@@ -7156,12 +7099,11 @@
       <c r="E77" t="s">
         <v>12</v>
       </c>
-      <c r="G77" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="G77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" hidden="1">
       <c r="A78">
         <v>77</v>
       </c>
@@ -7180,12 +7122,11 @@
       <c r="F78">
         <v>1</v>
       </c>
-      <c r="G78" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="G78">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" hidden="1">
       <c r="A79">
         <v>78</v>
       </c>
@@ -7208,7 +7149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" hidden="1">
       <c r="A80">
         <v>79</v>
       </c>
@@ -7231,7 +7172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" hidden="1">
       <c r="A81">
         <v>80</v>
       </c>
@@ -7250,12 +7191,11 @@
       <c r="F81">
         <v>1</v>
       </c>
-      <c r="G81" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="G81">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" hidden="1">
       <c r="A82">
         <v>81</v>
       </c>
@@ -7274,12 +7214,11 @@
       <c r="F82">
         <v>1</v>
       </c>
-      <c r="G82" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="G82">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" hidden="1">
       <c r="A83">
         <v>82</v>
       </c>
@@ -7298,12 +7237,11 @@
       <c r="F83">
         <v>1</v>
       </c>
-      <c r="G83" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="G83">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" hidden="1">
       <c r="A84">
         <v>83</v>
       </c>
@@ -7322,12 +7260,11 @@
       <c r="F84">
         <v>1</v>
       </c>
-      <c r="G84" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="G84">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" hidden="1">
       <c r="A85">
         <v>84</v>
       </c>
@@ -7346,12 +7283,11 @@
       <c r="F85">
         <v>1</v>
       </c>
-      <c r="G85" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="G85">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" hidden="1">
       <c r="A86">
         <v>85</v>
       </c>
@@ -7370,12 +7306,11 @@
       <c r="F86">
         <v>1</v>
       </c>
-      <c r="G86" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="G86">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" hidden="1">
       <c r="A87">
         <v>86</v>
       </c>
@@ -7394,12 +7329,11 @@
       <c r="F87">
         <v>1</v>
       </c>
-      <c r="G87" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="G87">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" hidden="1">
       <c r="A88">
         <v>87</v>
       </c>
@@ -7418,12 +7352,11 @@
       <c r="F88">
         <v>1</v>
       </c>
-      <c r="G88" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="G88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" hidden="1">
       <c r="A89">
         <v>88</v>
       </c>
@@ -7442,12 +7375,11 @@
       <c r="F89">
         <v>1</v>
       </c>
-      <c r="G89" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="G89">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" hidden="1">
       <c r="A90">
         <v>89</v>
       </c>
@@ -7466,12 +7398,11 @@
       <c r="F90">
         <v>1</v>
       </c>
-      <c r="G90" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="G90">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" hidden="1">
       <c r="A91">
         <v>90</v>
       </c>
@@ -7490,12 +7421,11 @@
       <c r="F91">
         <v>1</v>
       </c>
-      <c r="G91" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="G91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" hidden="1">
       <c r="A92">
         <v>91</v>
       </c>
@@ -7514,9 +7444,8 @@
       <c r="F92">
         <v>1</v>
       </c>
-      <c r="G92" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="G92">
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -7527,7 +7456,7 @@
         <v>196</v>
       </c>
       <c r="C93" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="D93" t="s">
         <v>11</v>
@@ -7536,11 +7465,11 @@
         <v>12</v>
       </c>
       <c r="G93" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G67:G106" si="1">VLOOKUP(C93,H:H,1,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" hidden="1">
       <c r="A94">
         <v>93</v>
       </c>
@@ -7563,7 +7492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" hidden="1">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7586,7 +7515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" hidden="1">
       <c r="A96">
         <v>95</v>
       </c>
@@ -7609,7 +7538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" hidden="1">
       <c r="A97">
         <v>96</v>
       </c>
@@ -7628,12 +7557,11 @@
       <c r="F97">
         <v>1</v>
       </c>
-      <c r="G97" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="G97">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" hidden="1">
       <c r="A98">
         <v>97</v>
       </c>
@@ -7652,12 +7580,11 @@
       <c r="F98">
         <v>1</v>
       </c>
-      <c r="G98" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="G98">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" hidden="1">
       <c r="A99">
         <v>98</v>
       </c>
@@ -7676,12 +7603,11 @@
       <c r="F99">
         <v>1</v>
       </c>
-      <c r="G99" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="G99">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" hidden="1">
       <c r="A100">
         <v>99</v>
       </c>
@@ -7704,7 +7630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" hidden="1">
       <c r="A101">
         <v>100</v>
       </c>
@@ -7723,12 +7649,11 @@
       <c r="F101">
         <v>1</v>
       </c>
-      <c r="G101" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="G101">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" hidden="1">
       <c r="A102">
         <v>101</v>
       </c>
@@ -7747,9 +7672,8 @@
       <c r="F102">
         <v>1</v>
       </c>
-      <c r="G102" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="G102">
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -7828,6 +7752,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G106" xr:uid="{48541F51-EBDC-504F-9B0C-8B3C84FA32B1}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="#N/A"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7841,10 +7772,10 @@
       <selection activeCell="G8" sqref="A1:G106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
   </cols>
   <sheetData>

--- a/2023秋/黄泽清-马原理分组情况.xlsx
+++ b/2023秋/黄泽清-马原理分组情况.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\助教\2023秋\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC56913-810B-4EF4-BF68-9FF63D9AF1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6D3898-AA15-4136-BFE8-DC2B6C3E3A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2295" yWindow="1275" windowWidth="15435" windowHeight="19110" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -859,6 +859,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -870,12 +876,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1209,78 +1209,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="32.85" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
     </row>
     <row r="2" spans="1:24" ht="16.350000000000001" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
     </row>
     <row r="3" spans="1:24" ht="16.350000000000001" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="10"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1337,12 +1337,12 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="16.350000000000001" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1411,10 +1411,10 @@
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="10"/>
+      <c r="E5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="12"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1447,10 +1447,10 @@
       <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="10"/>
+      <c r="E6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="12"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1483,10 +1483,10 @@
       <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="10"/>
+      <c r="E7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="12"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1519,10 +1519,10 @@
       <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="10"/>
+      <c r="E8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="12"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1555,10 +1555,10 @@
       <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="10"/>
+      <c r="E9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="12"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1591,10 +1591,10 @@
       <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="10"/>
+      <c r="E10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="12"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1627,10 +1627,10 @@
       <c r="D11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="10"/>
+      <c r="E11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="12"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1663,10 +1663,10 @@
       <c r="D12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="10"/>
+      <c r="E12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="12"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1699,10 +1699,10 @@
       <c r="D13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="10"/>
+      <c r="E13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="12"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1735,10 +1735,10 @@
       <c r="D14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="10"/>
+      <c r="E14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="12"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1771,10 +1771,10 @@
       <c r="D15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="10"/>
+      <c r="E15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="12"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1807,10 +1807,10 @@
       <c r="D16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="10"/>
+      <c r="E16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="12"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1843,10 +1843,10 @@
       <c r="D17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="10"/>
+      <c r="E17" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="12"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1879,10 +1879,10 @@
       <c r="D18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="10"/>
+      <c r="E18" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="12"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1915,10 +1915,10 @@
       <c r="D19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="10"/>
+      <c r="E19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="12"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1951,10 +1951,10 @@
       <c r="D20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="10"/>
+      <c r="E20" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="12"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1987,10 +1987,10 @@
       <c r="D21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="10"/>
+      <c r="E21" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="12"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -2023,10 +2023,10 @@
       <c r="D22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="10"/>
+      <c r="E22" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="12"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -2059,10 +2059,10 @@
       <c r="D23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="10"/>
+      <c r="E23" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="12"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -2095,10 +2095,10 @@
       <c r="D24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="10"/>
+      <c r="E24" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="12"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -2131,10 +2131,10 @@
       <c r="D25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="10"/>
+      <c r="E25" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="12"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -2167,10 +2167,10 @@
       <c r="D26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="10"/>
+      <c r="E26" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="12"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -2203,10 +2203,10 @@
       <c r="D27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="10"/>
+      <c r="E27" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="12"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -2239,10 +2239,10 @@
       <c r="D28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="10"/>
+      <c r="E28" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="12"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -2275,10 +2275,10 @@
       <c r="D29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="10"/>
+      <c r="E29" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="12"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -2311,10 +2311,10 @@
       <c r="D30" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="10"/>
+      <c r="E30" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="12"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -2347,10 +2347,10 @@
       <c r="D31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="10"/>
+      <c r="E31" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="12"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -2383,10 +2383,10 @@
       <c r="D32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="10"/>
+      <c r="E32" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="12"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -2419,10 +2419,10 @@
       <c r="D33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="10"/>
+      <c r="E33" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="12"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2455,10 +2455,10 @@
       <c r="D34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="10"/>
+      <c r="E34" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="12"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2491,10 +2491,10 @@
       <c r="D35" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="10"/>
+      <c r="E35" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="12"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2527,10 +2527,10 @@
       <c r="D36" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="10"/>
+      <c r="E36" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="12"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -2563,10 +2563,10 @@
       <c r="D37" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="10"/>
+      <c r="E37" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="12"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -2599,10 +2599,10 @@
       <c r="D38" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="10"/>
+      <c r="E38" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="12"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -2635,10 +2635,10 @@
       <c r="D39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="10"/>
+      <c r="E39" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="12"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -2671,10 +2671,10 @@
       <c r="D40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="10"/>
+      <c r="E40" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="12"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -2707,10 +2707,10 @@
       <c r="D41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E41" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="10"/>
+      <c r="E41" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="12"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -2743,10 +2743,10 @@
       <c r="D42" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="10"/>
+      <c r="E42" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="12"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -2779,10 +2779,10 @@
       <c r="D43" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="10"/>
+      <c r="E43" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="12"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -2815,10 +2815,10 @@
       <c r="D44" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="10"/>
+      <c r="E44" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="12"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -2851,10 +2851,10 @@
       <c r="D45" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="10"/>
+      <c r="E45" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="12"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -2887,10 +2887,10 @@
       <c r="D46" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="10"/>
+      <c r="E46" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="12"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -2923,10 +2923,10 @@
       <c r="D47" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="10"/>
+      <c r="E47" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="12"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -2959,10 +2959,10 @@
       <c r="D48" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E48" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="10"/>
+      <c r="E48" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="12"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -2995,10 +2995,10 @@
       <c r="D49" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="10"/>
+      <c r="E49" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="12"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -3031,10 +3031,10 @@
       <c r="D50" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E50" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="10"/>
+      <c r="E50" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="12"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -3067,10 +3067,10 @@
       <c r="D51" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E51" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="10"/>
+      <c r="E51" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="12"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -3103,10 +3103,10 @@
       <c r="D52" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E52" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="10"/>
+      <c r="E52" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="12"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -3139,10 +3139,10 @@
       <c r="D53" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" s="10"/>
+      <c r="E53" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="12"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -3175,10 +3175,10 @@
       <c r="D54" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" s="10"/>
+      <c r="E54" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="12"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -3211,10 +3211,10 @@
       <c r="D55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E55" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="10"/>
+      <c r="E55" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="12"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -3247,10 +3247,10 @@
       <c r="D56" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E56" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="10"/>
+      <c r="E56" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="12"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -3283,10 +3283,10 @@
       <c r="D57" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E57" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="10"/>
+      <c r="E57" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="12"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -3319,10 +3319,10 @@
       <c r="D58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="10"/>
+      <c r="E58" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="12"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -3355,10 +3355,10 @@
       <c r="D59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="10"/>
+      <c r="E59" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="12"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -3391,10 +3391,10 @@
       <c r="D60" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E60" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="10"/>
+      <c r="E60" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="12"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -3427,10 +3427,10 @@
       <c r="D61" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E61" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="10"/>
+      <c r="E61" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="12"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -3463,10 +3463,10 @@
       <c r="D62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="10"/>
+      <c r="E62" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="12"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -3499,10 +3499,10 @@
       <c r="D63" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E63" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="10"/>
+      <c r="E63" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="12"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -3535,10 +3535,10 @@
       <c r="D64" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="10"/>
+      <c r="E64" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="12"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -3571,10 +3571,10 @@
       <c r="D65" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E65" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" s="10"/>
+      <c r="E65" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="12"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -3607,10 +3607,10 @@
       <c r="D66" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E66" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" s="10"/>
+      <c r="E66" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="12"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -3643,10 +3643,10 @@
       <c r="D67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E67" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67" s="10"/>
+      <c r="E67" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="12"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -3679,10 +3679,10 @@
       <c r="D68" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E68" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" s="10"/>
+      <c r="E68" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="12"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -3715,10 +3715,10 @@
       <c r="D69" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E69" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" s="10"/>
+      <c r="E69" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="12"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -3751,10 +3751,10 @@
       <c r="D70" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E70" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" s="10"/>
+      <c r="E70" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="12"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -3787,10 +3787,10 @@
       <c r="D71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E71" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" s="10"/>
+      <c r="E71" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="12"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -3823,10 +3823,10 @@
       <c r="D72" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E72" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="10"/>
+      <c r="E72" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="12"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -3859,10 +3859,10 @@
       <c r="D73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E73" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="10"/>
+      <c r="E73" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="12"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -3895,10 +3895,10 @@
       <c r="D74" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E74" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" s="10"/>
+      <c r="E74" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="12"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -3931,10 +3931,10 @@
       <c r="D75" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E75" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F75" s="10"/>
+      <c r="E75" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="12"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -3967,10 +3967,10 @@
       <c r="D76" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E76" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" s="10"/>
+      <c r="E76" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="12"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -4003,10 +4003,10 @@
       <c r="D77" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E77" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" s="10"/>
+      <c r="E77" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="12"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -4039,10 +4039,10 @@
       <c r="D78" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E78" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" s="10"/>
+      <c r="E78" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="12"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -4075,10 +4075,10 @@
       <c r="D79" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E79" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79" s="10"/>
+      <c r="E79" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="12"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -4111,10 +4111,10 @@
       <c r="D80" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E80" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F80" s="10"/>
+      <c r="E80" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" s="12"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -4147,10 +4147,10 @@
       <c r="D81" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E81" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81" s="10"/>
+      <c r="E81" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" s="12"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -4183,10 +4183,10 @@
       <c r="D82" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E82" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F82" s="10"/>
+      <c r="E82" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" s="12"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -4219,10 +4219,10 @@
       <c r="D83" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E83" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F83" s="10"/>
+      <c r="E83" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" s="12"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -4255,10 +4255,10 @@
       <c r="D84" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E84" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F84" s="10"/>
+      <c r="E84" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="12"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -4291,10 +4291,10 @@
       <c r="D85" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E85" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F85" s="10"/>
+      <c r="E85" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" s="12"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -4327,10 +4327,10 @@
       <c r="D86" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E86" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F86" s="10"/>
+      <c r="E86" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" s="12"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -4363,10 +4363,10 @@
       <c r="D87" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E87" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F87" s="10"/>
+      <c r="E87" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87" s="12"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -4399,10 +4399,10 @@
       <c r="D88" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E88" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F88" s="10"/>
+      <c r="E88" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88" s="12"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -4435,10 +4435,10 @@
       <c r="D89" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E89" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F89" s="10"/>
+      <c r="E89" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" s="12"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -4471,10 +4471,10 @@
       <c r="D90" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E90" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F90" s="10"/>
+      <c r="E90" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" s="12"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -4507,10 +4507,10 @@
       <c r="D91" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E91" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F91" s="10"/>
+      <c r="E91" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" s="12"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -4543,10 +4543,10 @@
       <c r="D92" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E92" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F92" s="10"/>
+      <c r="E92" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" s="12"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -4579,10 +4579,10 @@
       <c r="D93" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E93" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F93" s="10"/>
+      <c r="E93" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" s="12"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -4615,10 +4615,10 @@
       <c r="D94" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E94" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F94" s="10"/>
+      <c r="E94" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" s="12"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -4651,10 +4651,10 @@
       <c r="D95" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E95" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F95" s="10"/>
+      <c r="E95" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95" s="12"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -4687,10 +4687,10 @@
       <c r="D96" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E96" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F96" s="10"/>
+      <c r="E96" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F96" s="12"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -4723,10 +4723,10 @@
       <c r="D97" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E97" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F97" s="10"/>
+      <c r="E97" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" s="12"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -4759,10 +4759,10 @@
       <c r="D98" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E98" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F98" s="10"/>
+      <c r="E98" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" s="12"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -4795,10 +4795,10 @@
       <c r="D99" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E99" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F99" s="10"/>
+      <c r="E99" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99" s="12"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -4831,10 +4831,10 @@
       <c r="D100" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E100" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F100" s="10"/>
+      <c r="E100" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" s="12"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
@@ -4867,10 +4867,10 @@
       <c r="D101" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E101" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F101" s="10"/>
+      <c r="E101" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" s="12"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
@@ -4903,10 +4903,10 @@
       <c r="D102" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E102" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F102" s="10"/>
+      <c r="E102" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" s="12"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
@@ -4939,10 +4939,10 @@
       <c r="D103" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E103" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F103" s="10"/>
+      <c r="E103" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F103" s="12"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
@@ -4975,10 +4975,10 @@
       <c r="D104" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E104" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F104" s="10"/>
+      <c r="E104" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104" s="12"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
@@ -5011,10 +5011,10 @@
       <c r="D105" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E105" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F105" s="10"/>
+      <c r="E105" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" s="12"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
@@ -5045,10 +5045,10 @@
         <v>217</v>
       </c>
       <c r="D106" s="2"/>
-      <c r="E106" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F106" s="10"/>
+      <c r="E106" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106" s="12"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
@@ -5079,10 +5079,10 @@
         <v>219</v>
       </c>
       <c r="D107" s="2"/>
-      <c r="E107" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F107" s="10"/>
+      <c r="E107" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" s="12"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
@@ -5115,10 +5115,10 @@
       <c r="D108" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E108" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108" s="10"/>
+      <c r="E108" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108" s="12"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
@@ -5149,10 +5149,10 @@
         <v>223</v>
       </c>
       <c r="D109" s="2"/>
-      <c r="E109" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F109" s="10"/>
+      <c r="E109" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" s="12"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
@@ -5182,25 +5182,127 @@
     </row>
     <row r="112" spans="1:24" ht="25.7" customHeight="1">
       <c r="D112" s="5"/>
-      <c r="M112" s="14" t="s">
+      <c r="M112" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="N112" s="14"/>
+      <c r="N112" s="10"/>
       <c r="O112" s="7"/>
       <c r="P112" s="7"/>
       <c r="Q112" s="6"/>
-      <c r="R112" s="15" t="s">
+      <c r="R112" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="S112" s="15"/>
-      <c r="T112" s="15"/>
-      <c r="U112" s="15"/>
+      <c r="S112" s="11"/>
+      <c r="T112" s="11"/>
+      <c r="U112" s="11"/>
       <c r="V112" s="7"/>
       <c r="W112" s="7"/>
       <c r="X112" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="114">
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="A2:X2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E94:F94"/>
     <mergeCell ref="M112:N112"/>
     <mergeCell ref="R112:U112"/>
     <mergeCell ref="E105:F105"/>
@@ -5213,108 +5315,6 @@
     <mergeCell ref="E102:F102"/>
     <mergeCell ref="E103:F103"/>
     <mergeCell ref="E104:F104"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:X1"/>
-    <mergeCell ref="A2:X2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:F4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.39500001072883606" right="0.39500001072883606" top="0.26899999380111694" bottom="0.26899999380111694" header="0" footer="0"/>
@@ -5331,7 +5331,7 @@
   <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5862,7 +5862,7 @@
         <v>1</v>
       </c>
       <c r="G23" t="e">
-        <f t="shared" ref="G2:G65" si="0">VLOOKUP(C23,H:H,1,0)</f>
+        <f t="shared" ref="G23:G42" si="0">VLOOKUP(C23,H:H,1,0)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -7465,7 +7465,7 @@
         <v>12</v>
       </c>
       <c r="G93" t="e">
-        <f t="shared" ref="G67:G106" si="1">VLOOKUP(C93,H:H,1,0)</f>
+        <f>VLOOKUP(C93,H:H,1,0)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -7690,7 +7690,7 @@
         <v>12</v>
       </c>
       <c r="G103" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G93:G106" si="1">VLOOKUP(C103,H:H,1,0)</f>
         <v>#N/A</v>
       </c>
     </row>
